--- a/TA 2/Code/Hasil Ekstraksi/xlsx/hasil_567.xlsx
+++ b/TA 2/Code/Hasil Ekstraksi/xlsx/hasil_567.xlsx
@@ -350,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W56"/>
+      <selection sqref="A1:W63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,19 +408,19 @@
         <v>0.16989147545363112</v>
       </c>
       <c r="Q1">
-        <v>0</v>
+        <v>0.88307935498139045</v>
       </c>
       <c r="R1">
-        <v>0</v>
+        <v>0.86410686090812339</v>
       </c>
       <c r="S1">
-        <v>0</v>
+        <v>0.91585710203334669</v>
       </c>
       <c r="T1">
-        <v>0</v>
+        <v>0.82376600244401543</v>
       </c>
       <c r="U1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V1">
         <v>0</v>
@@ -479,19 +479,19 @@
         <v>0.22459667878439318</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.9252606518507408</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.91046207807808743</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.94512373993065013</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.89018806339680689</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -550,19 +550,19 @@
         <v>0.23532961422182763</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.91897388513536249</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.90122551701499065</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.93973936452160178</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.8814485980688147</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -573,67 +573,67 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.86886874417925575</v>
+        <v>0.4896773036094888</v>
       </c>
       <c r="B4">
-        <v>0.86191405618784656</v>
+        <v>0.48914479841323821</v>
       </c>
       <c r="C4">
-        <v>0.86818551136546018</v>
+        <v>0.49252916268111513</v>
       </c>
       <c r="D4">
-        <v>0.8675160098667305</v>
+        <v>0.48555404644497135</v>
       </c>
       <c r="E4">
-        <v>1.9235862125162973E-2</v>
+        <v>1.0567755867014342E-2</v>
       </c>
       <c r="F4">
-        <v>2.98489147940793E-2</v>
+        <v>1.1115371833218294E-2</v>
       </c>
       <c r="G4">
-        <v>1.7647058823529412E-2</v>
+        <v>7.624140565317036E-3</v>
       </c>
       <c r="H4">
-        <v>2.3933328220466805E-2</v>
+        <v>1.4801748600352788E-2</v>
       </c>
       <c r="I4">
-        <v>0.99038206893741854</v>
+        <v>0.99471612206649285</v>
       </c>
       <c r="J4">
-        <v>0.98507554260296037</v>
+        <v>0.9944423140833909</v>
       </c>
       <c r="K4">
-        <v>0.99117647058823533</v>
+        <v>0.99618792971734149</v>
       </c>
       <c r="L4">
-        <v>0.98803333588976661</v>
+        <v>0.99259912569982367</v>
       </c>
       <c r="M4">
-        <v>0.13295117541405169</v>
+        <v>0.326418696619592</v>
       </c>
       <c r="N4">
-        <v>0.14371656631550117</v>
+        <v>0.32749069038655026</v>
       </c>
       <c r="O4">
-        <v>0.13235438758217624</v>
+        <v>0.32043328452404612</v>
       </c>
       <c r="P4">
-        <v>0.13673146983886636</v>
+        <v>0.33443280410205839</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.97885884856732452</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.97776318040032506</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.98474881578427298</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.97038840679524119</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -644,67 +644,67 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.4896773036094888</v>
+        <v>0.7667180278455652</v>
       </c>
       <c r="B5">
-        <v>0.48914479841323821</v>
+        <v>0.76443384119029922</v>
       </c>
       <c r="C5">
-        <v>0.49252916268111513</v>
+        <v>0.76927898797827354</v>
       </c>
       <c r="D5">
-        <v>0.48555404644497135</v>
+        <v>0.76065044728083009</v>
       </c>
       <c r="E5">
-        <v>1.0567755867014342E-2</v>
+        <v>2.2444385593220338E-2</v>
       </c>
       <c r="F5">
-        <v>1.1115371833218294E-2</v>
+        <v>2.7379400260756193E-2</v>
       </c>
       <c r="G5">
-        <v>7.624140565317036E-3</v>
+        <v>1.784568372803667E-2</v>
       </c>
       <c r="H5">
-        <v>1.4801748600352788E-2</v>
+        <v>3.1403226218779556E-2</v>
       </c>
       <c r="I5">
-        <v>0.99471612206649285</v>
+        <v>0.9887778072033897</v>
       </c>
       <c r="J5">
-        <v>0.9944423140833909</v>
+        <v>0.98631029986962193</v>
       </c>
       <c r="K5">
-        <v>0.99618792971734149</v>
+        <v>0.99107715813598174</v>
       </c>
       <c r="L5">
-        <v>0.99259912569982367</v>
+        <v>0.98429838689061022</v>
       </c>
       <c r="M5">
-        <v>0.326418696619592</v>
+        <v>0.20172648804261112</v>
       </c>
       <c r="N5">
-        <v>0.32749069038655026</v>
+        <v>0.20714433015395139</v>
       </c>
       <c r="O5">
-        <v>0.32043328452404612</v>
+        <v>0.19597073851596325</v>
       </c>
       <c r="P5">
-        <v>0.33443280410205839</v>
+        <v>0.21241414508480905</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.89380030470519456</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.86895820184000339</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.91629360702574125</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.84969677836392787</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -715,67 +715,67 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.7667180278455652</v>
+        <v>0.49544650559838821</v>
       </c>
       <c r="B6">
-        <v>0.76443384119029922</v>
+        <v>0.49435474741156132</v>
       </c>
       <c r="C6">
-        <v>0.76927898797827354</v>
+        <v>0.49830387287632605</v>
       </c>
       <c r="D6">
-        <v>0.76065044728083009</v>
+        <v>0.49130985219480833</v>
       </c>
       <c r="E6">
-        <v>2.2444385593220338E-2</v>
+        <v>1.1341875814863104E-2</v>
       </c>
       <c r="F6">
-        <v>2.7379400260756193E-2</v>
+        <v>1.2582764526932024E-2</v>
       </c>
       <c r="G6">
-        <v>1.784568372803667E-2</v>
+        <v>8.189457601222307E-3</v>
       </c>
       <c r="H6">
-        <v>3.1403226218779556E-2</v>
+        <v>1.5716951708975638E-2</v>
       </c>
       <c r="I6">
-        <v>0.9887778072033897</v>
+        <v>0.99432906209256844</v>
       </c>
       <c r="J6">
-        <v>0.98631029986962193</v>
+        <v>0.99370861773653396</v>
       </c>
       <c r="K6">
-        <v>0.99107715813598174</v>
+        <v>0.99590527119938888</v>
       </c>
       <c r="L6">
-        <v>0.98429838689061022</v>
+        <v>0.99214152414551215</v>
       </c>
       <c r="M6">
-        <v>0.20172648804261112</v>
+        <v>0.32505904183633805</v>
       </c>
       <c r="N6">
-        <v>0.20714433015395139</v>
+        <v>0.32738153579222251</v>
       </c>
       <c r="O6">
-        <v>0.19597073851596325</v>
+        <v>0.31884124191745605</v>
       </c>
       <c r="P6">
-        <v>0.21241414508480905</v>
+        <v>0.33315099425488748</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.97701003382542895</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.97448857759213836</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.98340783353802075</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.96813400766204327</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -786,67 +786,67 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.49544650559838821</v>
+        <v>0.79107991121059462</v>
       </c>
       <c r="B7">
-        <v>0.49435474741156132</v>
+        <v>0.7887761754410646</v>
       </c>
       <c r="C7">
-        <v>0.49830387287632605</v>
+        <v>0.79883985127351853</v>
       </c>
       <c r="D7">
-        <v>0.49130985219480833</v>
+        <v>0.78863163095170197</v>
       </c>
       <c r="E7">
-        <v>1.1341875814863104E-2</v>
+        <v>2.580569589308996E-2</v>
       </c>
       <c r="F7">
-        <v>1.2582764526932024E-2</v>
+        <v>3.1060664161362068E-2</v>
       </c>
       <c r="G7">
-        <v>8.189457601222307E-3</v>
+        <v>1.5737203972498091E-2</v>
       </c>
       <c r="H7">
-        <v>1.5716951708975638E-2</v>
+        <v>3.1219163023749264E-2</v>
       </c>
       <c r="I7">
-        <v>0.99432906209256844</v>
+        <v>0.98709715205345505</v>
       </c>
       <c r="J7">
-        <v>0.99370861773653396</v>
+        <v>0.98446966791931889</v>
       </c>
       <c r="K7">
-        <v>0.99590527119938888</v>
+        <v>0.99213139801375094</v>
       </c>
       <c r="L7">
-        <v>0.99214152414551215</v>
+        <v>0.98439041848812547</v>
       </c>
       <c r="M7">
-        <v>0.32505904183633805</v>
+        <v>0.18960567653162202</v>
       </c>
       <c r="N7">
-        <v>0.32738153579222251</v>
+        <v>0.19471995062883457</v>
       </c>
       <c r="O7">
-        <v>0.31884124191745605</v>
+        <v>0.17622488470839909</v>
       </c>
       <c r="P7">
-        <v>0.33315099425488748</v>
+        <v>0.19491483031627732</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.85958401349454638</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.82851532077392098</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.91524127350047246</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>0.82763636939965279</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -857,67 +857,67 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.86719362213620887</v>
+        <v>0.82117403043879811</v>
       </c>
       <c r="B8">
-        <v>0.8688731223545173</v>
+        <v>0.81890115691260912</v>
       </c>
       <c r="C8">
-        <v>0.8714553267879831</v>
+        <v>0.82979920886196001</v>
       </c>
       <c r="D8">
-        <v>0.86063948408569135</v>
+        <v>0.82002643742939996</v>
       </c>
       <c r="E8">
-        <v>2.3208319752281617E-2</v>
+        <v>2.4675073337679269E-2</v>
       </c>
       <c r="F8">
-        <v>2.4771838331160364E-2</v>
+        <v>3.0094332387453026E-2</v>
       </c>
       <c r="G8">
-        <v>1.650114591291062E-2</v>
+        <v>1.361344537815126E-2</v>
       </c>
       <c r="H8">
-        <v>3.3519952961627936E-2</v>
+        <v>2.8903034486284736E-2</v>
       </c>
       <c r="I8">
-        <v>0.98839584012385917</v>
+        <v>0.98766246333116037</v>
       </c>
       <c r="J8">
-        <v>0.98761408083441982</v>
+        <v>0.98495283380627352</v>
       </c>
       <c r="K8">
-        <v>0.99174942704354474</v>
+        <v>0.99319327731092433</v>
       </c>
       <c r="L8">
-        <v>0.98324002351918605</v>
+        <v>0.98554848275685769</v>
       </c>
       <c r="M8">
-        <v>0.13657432259901159</v>
+        <v>0.16946332090739064</v>
       </c>
       <c r="N8">
-        <v>0.1361602774621577</v>
+        <v>0.17441515679588387</v>
       </c>
       <c r="O8">
-        <v>0.12919497204586283</v>
+        <v>0.1548135868289951</v>
       </c>
       <c r="P8">
-        <v>0.14607904215193024</v>
+        <v>0.17295244813704161</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.84055885030897193</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.80189390547606254</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.9131644231456767</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.80973068248070235</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -928,67 +928,67 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.79107991121059462</v>
+        <v>0.82587937245972398</v>
       </c>
       <c r="B9">
-        <v>0.7887761754410646</v>
+        <v>0.82392136586164988</v>
       </c>
       <c r="C9">
-        <v>0.79883985127351853</v>
+        <v>0.83507693391406157</v>
       </c>
       <c r="D9">
-        <v>0.78863163095170197</v>
+        <v>0.82484511293530671</v>
       </c>
       <c r="E9">
-        <v>2.580569589308996E-2</v>
+        <v>2.4522286505867016E-2</v>
       </c>
       <c r="F9">
-        <v>3.1060664161362068E-2</v>
+        <v>2.9726205997392438E-2</v>
       </c>
       <c r="G9">
-        <v>1.5737203972498091E-2</v>
+        <v>1.2941176470588235E-2</v>
       </c>
       <c r="H9">
-        <v>3.1219163023749264E-2</v>
+        <v>2.8749648490426157E-2</v>
       </c>
       <c r="I9">
-        <v>0.98709715205345505</v>
+        <v>0.98773885674706663</v>
       </c>
       <c r="J9">
-        <v>0.98446966791931889</v>
+        <v>0.98513689700130391</v>
       </c>
       <c r="K9">
-        <v>0.99213139801375094</v>
+        <v>0.99352941176470599</v>
       </c>
       <c r="L9">
-        <v>0.98439041848812547</v>
+        <v>0.98562517575478692</v>
       </c>
       <c r="M9">
-        <v>0.18960567653162202</v>
+        <v>0.16623766126775605</v>
       </c>
       <c r="N9">
-        <v>0.19471995062883457</v>
+        <v>0.1708039273095518</v>
       </c>
       <c r="O9">
-        <v>0.17622488470839909</v>
+        <v>0.15076611376317223</v>
       </c>
       <c r="P9">
-        <v>0.19491483031627732</v>
+        <v>0.16960833337269549</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.83673543163985908</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.79810514574147751</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.91494426161922981</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.80473204683126232</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -999,67 +999,67 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.82117403043879811</v>
+        <v>0.8564902798872448</v>
       </c>
       <c r="B10">
-        <v>0.81890115691260912</v>
+        <v>0.85420417315899055</v>
       </c>
       <c r="C10">
-        <v>0.82979920886196001</v>
+        <v>0.86399275813388077</v>
       </c>
       <c r="D10">
-        <v>0.82002643742939996</v>
+        <v>0.8550703059634186</v>
       </c>
       <c r="E10">
-        <v>2.4675073337679269E-2</v>
+        <v>2.4002811277705347E-2</v>
       </c>
       <c r="F10">
-        <v>3.0094332387453026E-2</v>
+        <v>2.9710867397806581E-2</v>
       </c>
       <c r="G10">
-        <v>1.361344537815126E-2</v>
+        <v>1.3995416348357525E-2</v>
       </c>
       <c r="H10">
-        <v>2.8903034486284736E-2</v>
+        <v>2.8795664289183731E-2</v>
       </c>
       <c r="I10">
-        <v>0.98766246333116037</v>
+        <v>0.98799859436114723</v>
       </c>
       <c r="J10">
-        <v>0.98495283380627352</v>
+        <v>0.9851445663010967</v>
       </c>
       <c r="K10">
-        <v>0.99319327731092433</v>
+        <v>0.99300229182582123</v>
       </c>
       <c r="L10">
-        <v>0.98554848275685769</v>
+        <v>0.98560216785540822</v>
       </c>
       <c r="M10">
-        <v>0.16946332090739064</v>
+        <v>0.14478713284284339</v>
       </c>
       <c r="N10">
-        <v>0.17441515679588387</v>
+        <v>0.14939944036585298</v>
       </c>
       <c r="O10">
-        <v>0.1548135868289951</v>
+        <v>0.13245307834421324</v>
       </c>
       <c r="P10">
-        <v>0.17295244813704161</v>
+        <v>0.14833731317594828</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.80011489947886416</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.74599082784110904</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.8854784381882993</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.75380581791453949</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1070,67 +1070,67 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.82587937245972398</v>
+        <v>0.51414687189386143</v>
       </c>
       <c r="B11">
-        <v>0.82392136586164988</v>
+        <v>0.51313369105086981</v>
       </c>
       <c r="C11">
-        <v>0.83507693391406157</v>
+        <v>0.51563191094619676</v>
       </c>
       <c r="D11">
-        <v>0.82484511293530671</v>
+        <v>0.50913707560199106</v>
       </c>
       <c r="E11">
-        <v>2.4522286505867016E-2</v>
+        <v>1.1759493155149936E-2</v>
       </c>
       <c r="F11">
-        <v>2.9726205997392438E-2</v>
+        <v>1.3027583914921901E-2</v>
       </c>
       <c r="G11">
-        <v>1.2941176470588235E-2</v>
+        <v>9.6562261268143615E-3</v>
       </c>
       <c r="H11">
-        <v>2.8749648490426157E-2</v>
+        <v>1.7148554336989034E-2</v>
       </c>
       <c r="I11">
-        <v>0.98773885674706663</v>
+        <v>0.99412025342242505</v>
       </c>
       <c r="J11">
-        <v>0.98513689700130391</v>
+        <v>0.99348620804253907</v>
       </c>
       <c r="K11">
-        <v>0.99352941176470599</v>
+        <v>0.99517188693659286</v>
       </c>
       <c r="L11">
-        <v>0.98562517575478692</v>
+        <v>0.99142572283150554</v>
       </c>
       <c r="M11">
-        <v>0.16623766126775605</v>
+        <v>0.31737232444752728</v>
       </c>
       <c r="N11">
-        <v>0.1708039273095518</v>
+        <v>0.31966861451209905</v>
       </c>
       <c r="O11">
-        <v>0.15076611376317223</v>
+        <v>0.31351718331783951</v>
       </c>
       <c r="P11">
-        <v>0.16960833337269549</v>
+        <v>0.3271035086768862</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.97520307544983131</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.9725161352968611</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.9796627584406411</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.96382225972750069</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1141,67 +1141,67 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.9250675231367429</v>
+        <v>0.88170447087360004</v>
       </c>
       <c r="B12">
-        <v>0.92208396989041175</v>
+        <v>0.88289327572627907</v>
       </c>
       <c r="C12">
-        <v>0.92150027073542107</v>
+        <v>0.88299045090082706</v>
       </c>
       <c r="D12">
-        <v>0.91881621494232091</v>
+        <v>0.87600365623873422</v>
       </c>
       <c r="E12">
-        <v>1.1861351043024772E-2</v>
+        <v>1.6485699152542374E-2</v>
       </c>
       <c r="F12">
-        <v>1.8488125367487281E-2</v>
+        <v>1.8575044098473808E-2</v>
       </c>
       <c r="G12">
-        <v>1.3032849503437739E-2</v>
+        <v>1.2864782276546983E-2</v>
       </c>
       <c r="H12">
-        <v>2.1898407342076334E-2</v>
+        <v>2.5789298770355601E-2</v>
       </c>
       <c r="I12">
-        <v>0.99406932447848773</v>
+        <v>0.99175715042372881</v>
       </c>
       <c r="J12">
-        <v>0.99075593731625633</v>
+        <v>0.99071247795076312</v>
       </c>
       <c r="K12">
-        <v>0.99348357524828113</v>
+        <v>0.99356760886172646</v>
       </c>
       <c r="L12">
-        <v>0.98905079632896187</v>
+        <v>0.98710535061482219</v>
       </c>
       <c r="M12">
-        <v>8.4912580206572164E-2</v>
+        <v>0.12175741837984269</v>
       </c>
       <c r="N12">
-        <v>9.062572176218317E-2</v>
+        <v>0.12223586558971783</v>
       </c>
       <c r="O12">
-        <v>8.8581775278749178E-2</v>
+        <v>0.11809891681173421</v>
       </c>
       <c r="P12">
-        <v>9.4528233798669703E-2</v>
+        <v>0.13124618235498309</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>0.83850470780100739</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>0.81213934362931151</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.87666811384040966</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>0.73916514180282922</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1212,67 +1212,67 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.8564902798872448</v>
+        <v>0.8099101899919815</v>
       </c>
       <c r="B13">
-        <v>0.85420417315899055</v>
+        <v>0.80281464082721399</v>
       </c>
       <c r="C13">
-        <v>0.86399275813388077</v>
+        <v>0.8094202082194083</v>
       </c>
       <c r="D13">
-        <v>0.8550703059634186</v>
+        <v>0.80207758455182465</v>
       </c>
       <c r="E13">
-        <v>2.4002811277705347E-2</v>
+        <v>2.7445607887874836E-2</v>
       </c>
       <c r="F13">
-        <v>2.9710867397806581E-2</v>
+        <v>3.7876115244011556E-2</v>
       </c>
       <c r="G13">
-        <v>1.3995416348357525E-2</v>
+        <v>2.5714285714285714E-2</v>
       </c>
       <c r="H13">
-        <v>2.8795664289183731E-2</v>
+        <v>3.867883528900478E-2</v>
       </c>
       <c r="I13">
-        <v>0.98799859436114723</v>
+        <v>0.98627719605606257</v>
       </c>
       <c r="J13">
-        <v>0.9851445663010967</v>
+        <v>0.98106194237799427</v>
       </c>
       <c r="K13">
-        <v>0.99300229182582123</v>
+        <v>0.9871428571428571</v>
       </c>
       <c r="L13">
-        <v>0.98560216785540822</v>
+        <v>0.98066058235549758</v>
       </c>
       <c r="M13">
-        <v>0.14478713284284339</v>
+        <v>0.17872890025115934</v>
       </c>
       <c r="N13">
-        <v>0.14939944036585298</v>
+        <v>0.18943440283558322</v>
       </c>
       <c r="O13">
-        <v>0.13245307834421324</v>
+        <v>0.1778690407790422</v>
       </c>
       <c r="P13">
-        <v>0.14833731317594828</v>
+        <v>0.19032489083559184</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>0.83203161604905307</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>0.76436973078842796</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.8446517633261027</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>0.75936964208876967</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1283,67 +1283,67 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.51414687189386143</v>
+        <v>0.80537208385979819</v>
       </c>
       <c r="B14">
-        <v>0.51313369105086981</v>
+        <v>0.79794591189118547</v>
       </c>
       <c r="C14">
-        <v>0.51563191094619676</v>
+        <v>0.80574231508840777</v>
       </c>
       <c r="D14">
-        <v>0.50913707560199106</v>
+        <v>0.7981155718129993</v>
       </c>
       <c r="E14">
-        <v>1.1759493155149936E-2</v>
+        <v>2.6992340286831812E-2</v>
       </c>
       <c r="F14">
-        <v>1.3027583914921901E-2</v>
+        <v>3.7727842114681595E-2</v>
       </c>
       <c r="G14">
-        <v>9.6562261268143615E-3</v>
+        <v>2.4369747899159664E-2</v>
       </c>
       <c r="H14">
-        <v>1.7148554336989034E-2</v>
+        <v>3.7548891786179921E-2</v>
       </c>
       <c r="I14">
-        <v>0.99412025342242505</v>
+        <v>0.98650382985658402</v>
       </c>
       <c r="J14">
-        <v>0.99348620804253907</v>
+        <v>0.98113607894265908</v>
       </c>
       <c r="K14">
-        <v>0.99517188693659286</v>
+        <v>0.9878151260504201</v>
       </c>
       <c r="L14">
-        <v>0.99142572283150554</v>
+        <v>0.98122555410690993</v>
       </c>
       <c r="M14">
-        <v>0.31737232444752728</v>
+        <v>0.18137077966456278</v>
       </c>
       <c r="N14">
-        <v>0.31966861451209905</v>
+        <v>0.19262357120556273</v>
       </c>
       <c r="O14">
-        <v>0.31351718331783951</v>
+        <v>0.17926859934825273</v>
       </c>
       <c r="P14">
-        <v>0.3271035086768862</v>
+        <v>0.19241859415968238</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>0.83967882523161541</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>0.77238054326743621</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.85705368662267056</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>0.77345447189958572</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -1354,67 +1354,67 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.88170447087360004</v>
+        <v>0.66505030083551209</v>
       </c>
       <c r="B15">
-        <v>0.88289327572627907</v>
+        <v>0.65772228565466617</v>
       </c>
       <c r="C15">
-        <v>0.88299045090082706</v>
+        <v>0.6680415892560233</v>
       </c>
       <c r="D15">
-        <v>0.87600365623873422</v>
+        <v>0.65906661713942383</v>
       </c>
       <c r="E15">
-        <v>1.6485699152542374E-2</v>
+        <v>3.2136163624511084E-2</v>
       </c>
       <c r="F15">
-        <v>1.8575044098473808E-2</v>
+        <v>4.106143109134136E-2</v>
       </c>
       <c r="G15">
-        <v>1.2864782276546983E-2</v>
+        <v>2.6462948815889991E-2</v>
       </c>
       <c r="H15">
-        <v>2.5789298770355601E-2</v>
+        <v>3.9599151264156252E-2</v>
       </c>
       <c r="I15">
-        <v>0.99175715042372881</v>
+        <v>0.98393191818774439</v>
       </c>
       <c r="J15">
-        <v>0.99071247795076312</v>
+        <v>0.97946928445432924</v>
       </c>
       <c r="K15">
-        <v>0.99356760886172646</v>
+        <v>0.98676852559205497</v>
       </c>
       <c r="L15">
-        <v>0.98710535061482219</v>
+        <v>0.98020042436792187</v>
       </c>
       <c r="M15">
-        <v>0.12175741837984269</v>
+        <v>0.26723379648856355</v>
       </c>
       <c r="N15">
-        <v>0.12223586558971783</v>
+        <v>0.27834426754482022</v>
       </c>
       <c r="O15">
-        <v>0.11809891681173421</v>
+        <v>0.26051155846516338</v>
       </c>
       <c r="P15">
-        <v>0.13124618235498309</v>
+        <v>0.27650880949878837</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>0.89423545078368905</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>0.86444002641524864</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.91357506153665835</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>0.86926758866717713</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -1425,67 +1425,67 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.91092850974399764</v>
+        <v>0.48085749377633946</v>
       </c>
       <c r="B16">
-        <v>0.91179436470391428</v>
+        <v>0.47517604395659852</v>
       </c>
       <c r="C16">
-        <v>0.91313913641295119</v>
+        <v>0.48216971218239368</v>
       </c>
       <c r="D16">
-        <v>0.90669648178768336</v>
+        <v>0.47418247619874659</v>
       </c>
       <c r="E16">
-        <v>1.7127403846153848E-2</v>
+        <v>1.9541435788787483E-2</v>
       </c>
       <c r="F16">
-        <v>1.9817470664928293E-2</v>
+        <v>2.5492752511695683E-2</v>
       </c>
       <c r="G16">
-        <v>1.2482811306340718E-2</v>
+        <v>1.8166539343009932E-2</v>
       </c>
       <c r="H16">
-        <v>2.516041618733543E-2</v>
+        <v>2.6540890150062633E-2</v>
       </c>
       <c r="I16">
-        <v>0.99143629807692302</v>
+        <v>0.99022928210560623</v>
       </c>
       <c r="J16">
-        <v>0.99009126466753583</v>
+        <v>0.98725362374415215</v>
       </c>
       <c r="K16">
-        <v>0.99375859434682956</v>
+        <v>0.99091673032849503</v>
       </c>
       <c r="L16">
-        <v>0.98741979190633222</v>
+        <v>0.98672955492496861</v>
       </c>
       <c r="M16">
-        <v>9.9506468490534572E-2</v>
+        <v>0.34282287320433608</v>
       </c>
       <c r="N16">
-        <v>9.9973649932385861E-2</v>
+        <v>0.35257541678879512</v>
       </c>
       <c r="O16">
-        <v>9.5016576256951882E-2</v>
+        <v>0.34046776688719582</v>
       </c>
       <c r="P16">
-        <v>0.10602520944938751</v>
+        <v>0.35422445647576867</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>0.96091579472453881</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>0.94901256601616457</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.96366646871635864</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>0.94691620808970234</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -1496,67 +1496,67 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.8099101899919815</v>
+        <v>0.51293830942067387</v>
       </c>
       <c r="B17">
-        <v>0.80281464082721399</v>
+        <v>0.50737594143929166</v>
       </c>
       <c r="C17">
-        <v>0.8094202082194083</v>
+        <v>0.51848085563831758</v>
       </c>
       <c r="D17">
-        <v>0.80207758455182465</v>
+        <v>0.50916714511808203</v>
       </c>
       <c r="E17">
-        <v>2.7445607887874836E-2</v>
+        <v>2.3829652868318122E-2</v>
       </c>
       <c r="F17">
-        <v>3.7876115244011556E-2</v>
+        <v>3.0073880921338548E-2</v>
       </c>
       <c r="G17">
-        <v>2.5714285714285714E-2</v>
+        <v>1.7341482047364399E-2</v>
       </c>
       <c r="H17">
-        <v>3.867883528900478E-2</v>
+        <v>2.8171894572692181E-2</v>
       </c>
       <c r="I17">
-        <v>0.98627719605606257</v>
+        <v>0.98808517356584091</v>
       </c>
       <c r="J17">
-        <v>0.98106194237799427</v>
+        <v>0.98496305953933061</v>
       </c>
       <c r="K17">
-        <v>0.9871428571428571</v>
+        <v>0.99132925897631785</v>
       </c>
       <c r="L17">
-        <v>0.98066058235549758</v>
+        <v>0.98591405271365384</v>
       </c>
       <c r="M17">
-        <v>0.17872890025115934</v>
+        <v>0.33361180893580261</v>
       </c>
       <c r="N17">
-        <v>0.18943440283558322</v>
+        <v>0.34307693069994599</v>
       </c>
       <c r="O17">
-        <v>0.1778690407790422</v>
+        <v>0.32313498914719641</v>
       </c>
       <c r="P17">
-        <v>0.19032489083559184</v>
+        <v>0.34021352758252987</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>0.94862083114145546</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>0.93510932918535061</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.96266460949242527</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>0.9392132614436044</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -1567,67 +1567,67 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.80537208385979819</v>
+        <v>0.47990261914685339</v>
       </c>
       <c r="B18">
-        <v>0.79794591189118547</v>
+        <v>0.47387972325185534</v>
       </c>
       <c r="C18">
-        <v>0.80574231508840777</v>
+        <v>0.48301993614169053</v>
       </c>
       <c r="D18">
-        <v>0.7981155718129993</v>
+        <v>0.47283698084639392</v>
       </c>
       <c r="E18">
-        <v>2.6992340286831812E-2</v>
+        <v>2.3345827900912646E-2</v>
       </c>
       <c r="F18">
-        <v>3.7727842114681595E-2</v>
+        <v>2.9695528798220721E-2</v>
       </c>
       <c r="G18">
-        <v>2.4369747899159664E-2</v>
+        <v>2.0259740259740259E-2</v>
       </c>
       <c r="H18">
-        <v>3.7548891786179921E-2</v>
+        <v>3.0805020834931106E-2</v>
       </c>
       <c r="I18">
-        <v>0.98650382985658402</v>
+        <v>0.98832708604954367</v>
       </c>
       <c r="J18">
-        <v>0.98113607894265908</v>
+        <v>0.9851522356008896</v>
       </c>
       <c r="K18">
-        <v>0.9878151260504201</v>
+        <v>0.9898701298701299</v>
       </c>
       <c r="L18">
-        <v>0.98122555410690993</v>
+        <v>0.98459748958253446</v>
       </c>
       <c r="M18">
-        <v>0.18137077966456278</v>
+        <v>0.34794189857861424</v>
       </c>
       <c r="N18">
-        <v>0.19262357120556273</v>
+        <v>0.35788074450770307</v>
       </c>
       <c r="O18">
-        <v>0.17926859934825273</v>
+        <v>0.34277298542961931</v>
       </c>
       <c r="P18">
-        <v>0.19241859415968238</v>
+        <v>0.35955037366548942</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>0.95305451754521542</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>0.94028727861754824</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.95924665893293903</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>0.93805632319857213</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -1638,67 +1638,67 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.66505030083551209</v>
+        <v>0.53062258321317579</v>
       </c>
       <c r="B19">
-        <v>0.65772228565466617</v>
+        <v>0.52451344542570055</v>
       </c>
       <c r="C19">
-        <v>0.6680415892560233</v>
+        <v>0.53636429047068512</v>
       </c>
       <c r="D19">
-        <v>0.65906661713942383</v>
+        <v>0.52226439263350155</v>
       </c>
       <c r="E19">
-        <v>3.2136163624511084E-2</v>
+        <v>3.7376751955671444E-2</v>
       </c>
       <c r="F19">
-        <v>4.106143109134136E-2</v>
+        <v>4.4896080987805814E-2</v>
       </c>
       <c r="G19">
-        <v>2.6462948815889991E-2</v>
+        <v>3.0374331550802137E-2</v>
       </c>
       <c r="H19">
-        <v>3.9599151264156252E-2</v>
+        <v>4.7375821254186157E-2</v>
       </c>
       <c r="I19">
-        <v>0.98393191818774439</v>
+        <v>0.98131162402216421</v>
       </c>
       <c r="J19">
-        <v>0.97946928445432924</v>
+        <v>0.97755195950609708</v>
       </c>
       <c r="K19">
-        <v>0.98676852559205497</v>
+        <v>0.98481283422459898</v>
       </c>
       <c r="L19">
-        <v>0.98020042436792187</v>
+        <v>0.97631208937290692</v>
       </c>
       <c r="M19">
-        <v>0.26723379648856355</v>
+        <v>0.33949390175637162</v>
       </c>
       <c r="N19">
-        <v>0.27834426754482022</v>
+        <v>0.34914651579374878</v>
       </c>
       <c r="O19">
-        <v>0.26051155846516338</v>
+        <v>0.3299033322748357</v>
       </c>
       <c r="P19">
-        <v>0.27650880949878837</v>
+        <v>0.35232137405707131</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>0.91375876446273752</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>0.89621949921509569</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.93004271670497929</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>0.89048692712634636</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -1709,67 +1709,67 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.79160016250391829</v>
+        <v>0.81623335060321978</v>
       </c>
       <c r="B20">
-        <v>0.79022888714835493</v>
+        <v>0.80686383697874275</v>
       </c>
       <c r="C20">
-        <v>0.78914895455508405</v>
+        <v>0.81234803525688348</v>
       </c>
       <c r="D20">
-        <v>0.78330924807480118</v>
+        <v>0.81357204816612005</v>
       </c>
       <c r="E20">
-        <v>1.6602835723598434E-2</v>
+        <v>1.7580671447196872E-2</v>
       </c>
       <c r="F20">
-        <v>2.0548610578520848E-2</v>
+        <v>3.0181251118439553E-2</v>
       </c>
       <c r="G20">
-        <v>1.703590527119939E-2</v>
+        <v>1.9358288770053477E-2</v>
       </c>
       <c r="H20">
-        <v>2.7824219648746068E-2</v>
+        <v>2.3099930976301863E-2</v>
       </c>
       <c r="I20">
-        <v>0.99169858213820083</v>
+        <v>0.99120966427640156</v>
       </c>
       <c r="J20">
-        <v>0.98972569471073957</v>
+        <v>0.98490937444078031</v>
       </c>
       <c r="K20">
-        <v>0.99148204736440027</v>
+        <v>0.99032085561497329</v>
       </c>
       <c r="L20">
-        <v>0.98608789017562704</v>
+        <v>0.9884500345118491</v>
       </c>
       <c r="M20">
-        <v>0.18146581179446031</v>
+        <v>0.16712078223465013</v>
       </c>
       <c r="N20">
-        <v>0.18590959661279449</v>
+        <v>0.18247329016781275</v>
       </c>
       <c r="O20">
-        <v>0.18336435936698886</v>
+        <v>0.17111413594454808</v>
       </c>
       <c r="P20">
-        <v>0.19593510940196734</v>
+        <v>0.17329662805787724</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>0.89440724750148826</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>0.81581728788075558</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>0.88522872954864351</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>0.85902781935617245</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -1780,67 +1780,67 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.48085749377633946</v>
+        <v>0.48925185728504417</v>
       </c>
       <c r="B21">
-        <v>0.47517604395659852</v>
+        <v>0.47847684518168193</v>
       </c>
       <c r="C21">
-        <v>0.48216971218239368</v>
+        <v>0.49282074747254279</v>
       </c>
       <c r="D21">
-        <v>0.47418247619874659</v>
+        <v>0.48131538653266048</v>
       </c>
       <c r="E21">
-        <v>1.9541435788787483E-2</v>
+        <v>3.0985169491525424E-2</v>
       </c>
       <c r="F21">
-        <v>2.5492752511695683E-2</v>
+        <v>4.288672444205844E-2</v>
       </c>
       <c r="G21">
-        <v>1.8166539343009932E-2</v>
+        <v>2.6737967914438502E-2</v>
       </c>
       <c r="H21">
-        <v>2.6540890150062633E-2</v>
+        <v>3.9793440192243783E-2</v>
       </c>
       <c r="I21">
-        <v>0.99022928210560623</v>
+        <v>0.98450741525423746</v>
       </c>
       <c r="J21">
-        <v>0.98725362374415215</v>
+        <v>0.97855663777897084</v>
       </c>
       <c r="K21">
-        <v>0.99091673032849503</v>
+        <v>0.98663101604278081</v>
       </c>
       <c r="L21">
-        <v>0.98672955492496861</v>
+        <v>0.98010327990387802</v>
       </c>
       <c r="M21">
-        <v>0.34282287320433608</v>
+        <v>0.3523281859297609</v>
       </c>
       <c r="N21">
-        <v>0.35257541678879512</v>
+        <v>0.36898215068990498</v>
       </c>
       <c r="O21">
-        <v>0.34046776688719582</v>
+        <v>0.3460756424157001</v>
       </c>
       <c r="P21">
-        <v>0.35422445647576867</v>
+        <v>0.36478729800142856</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.93554465666498066</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>0.91074111696531035</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>0.9444297554148684</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>0.91717890468614649</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -1851,564 +1851,564 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.51293830942067387</v>
+        <v>0.86886874417925575</v>
       </c>
       <c r="B22">
-        <v>0.50737594143929166</v>
+        <v>0.86191405618784656</v>
       </c>
       <c r="C22">
-        <v>0.51848085563831758</v>
+        <v>0.86818551136546018</v>
       </c>
       <c r="D22">
-        <v>0.50916714511808203</v>
+        <v>0.8675160098667305</v>
       </c>
       <c r="E22">
-        <v>2.3829652868318122E-2</v>
+        <v>1.9235862125162973E-2</v>
       </c>
       <c r="F22">
-        <v>3.0073880921338548E-2</v>
+        <v>2.98489147940793E-2</v>
       </c>
       <c r="G22">
-        <v>1.7341482047364399E-2</v>
+        <v>1.7647058823529412E-2</v>
       </c>
       <c r="H22">
-        <v>2.8171894572692181E-2</v>
+        <v>2.3933328220466805E-2</v>
       </c>
       <c r="I22">
-        <v>0.98808517356584091</v>
+        <v>0.99038206893741854</v>
       </c>
       <c r="J22">
-        <v>0.98496305953933061</v>
+        <v>0.98507554260296037</v>
       </c>
       <c r="K22">
-        <v>0.99132925897631785</v>
+        <v>0.99117647058823533</v>
       </c>
       <c r="L22">
-        <v>0.98591405271365384</v>
+        <v>0.98803333588976661</v>
       </c>
       <c r="M22">
-        <v>0.33361180893580261</v>
+        <v>0.13295117541405169</v>
       </c>
       <c r="N22">
-        <v>0.34307693069994599</v>
+        <v>0.14371656631550117</v>
       </c>
       <c r="O22">
-        <v>0.32313498914719641</v>
+        <v>0.13235438758217624</v>
       </c>
       <c r="P22">
-        <v>0.34021352758252987</v>
+        <v>0.13673146983886636</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>0.82865727059186967</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>0.72647791196535272</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>0.84584873926185811</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>0.78067661271141753</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.47990261914685339</v>
+        <v>0.87224352074843436</v>
       </c>
       <c r="B23">
-        <v>0.47387972325185534</v>
+        <v>0.86177245864511387</v>
       </c>
       <c r="C23">
-        <v>0.48301993614169053</v>
+        <v>0.8685886795359854</v>
       </c>
       <c r="D23">
-        <v>0.47283698084639392</v>
+        <v>0.87012870477866555</v>
       </c>
       <c r="E23">
-        <v>2.3345827900912646E-2</v>
+        <v>1.883861636245111E-2</v>
       </c>
       <c r="F23">
-        <v>2.9695528798220721E-2</v>
+        <v>3.314671370503873E-2</v>
       </c>
       <c r="G23">
         <v>2.0259740259740259E-2</v>
       </c>
       <c r="H23">
-        <v>3.0805020834931106E-2</v>
+        <v>2.4286116010941536E-2</v>
       </c>
       <c r="I23">
-        <v>0.98832708604954367</v>
+        <v>0.99058069181877451</v>
       </c>
       <c r="J23">
-        <v>0.9851522356008896</v>
+        <v>0.98342664314748052</v>
       </c>
       <c r="K23">
         <v>0.9898701298701299</v>
       </c>
       <c r="L23">
-        <v>0.98459748958253446</v>
+        <v>0.98785694199452923</v>
       </c>
       <c r="M23">
-        <v>0.34794189857861424</v>
+        <v>0.13024958989578636</v>
       </c>
       <c r="N23">
-        <v>0.35788074450770307</v>
+        <v>0.14507820406147348</v>
       </c>
       <c r="O23">
-        <v>0.34277298542961931</v>
+        <v>0.1338126984808142</v>
       </c>
       <c r="P23">
-        <v>0.35955037366548942</v>
+        <v>0.13497622767891734</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>0.82760006253387119</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>0.68782388664275973</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>0.81839933409469157</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>0.77126331776147761</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.80895500826162758</v>
+        <v>0.92141086978216291</v>
       </c>
       <c r="B24">
-        <v>0.80999592937164833</v>
+        <v>0.91887315229296029</v>
       </c>
       <c r="C24">
-        <v>0.81203301151282092</v>
+        <v>0.92522897691891548</v>
       </c>
       <c r="D24">
-        <v>0.80354503720084869</v>
+        <v>0.92208133566032868</v>
       </c>
       <c r="E24">
-        <v>1.9220583441981746E-2</v>
+        <v>1.5660650260756193E-2</v>
       </c>
       <c r="F24">
-        <v>2.0906511235524197E-2</v>
+        <v>2.1934197407776669E-2</v>
       </c>
       <c r="G24">
-        <v>1.3919022154316271E-2</v>
+        <v>9.3353705118410998E-3</v>
       </c>
       <c r="H24">
-        <v>2.7691285119001968E-2</v>
+        <v>1.8595495564588286E-2</v>
       </c>
       <c r="I24">
-        <v>0.99038970827900907</v>
+        <v>0.99216967486962193</v>
       </c>
       <c r="J24">
-        <v>0.98954674438223789</v>
+        <v>0.98903290129611177</v>
       </c>
       <c r="K24">
-        <v>0.99304048892284191</v>
+        <v>0.99533231474407957</v>
       </c>
       <c r="L24">
-        <v>0.98615435744049906</v>
+        <v>0.99070225221770591</v>
       </c>
       <c r="M24">
-        <v>0.17314140859003541</v>
+        <v>9.0049976620801525E-2</v>
       </c>
       <c r="N24">
-        <v>0.17388338999377712</v>
+        <v>9.4485817953506024E-2</v>
       </c>
       <c r="O24">
-        <v>0.16630593078879563</v>
+        <v>8.3045936650228566E-2</v>
       </c>
       <c r="P24">
-        <v>0.18302528925166428</v>
+        <v>9.0665028099996936E-2</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>0.75210188171112646</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>0.63243144625891423</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>0.85752485748553342</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>0.68835563446809422</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
       <c r="W24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.53062258321317579</v>
+        <v>0.91092850974399764</v>
       </c>
       <c r="B25">
-        <v>0.52451344542570055</v>
+        <v>0.91179436470391428</v>
       </c>
       <c r="C25">
-        <v>0.53636429047068512</v>
+        <v>0.91313913641295119</v>
       </c>
       <c r="D25">
-        <v>0.52226439263350155</v>
+        <v>0.90669648178768336</v>
       </c>
       <c r="E25">
-        <v>3.7376751955671444E-2</v>
+        <v>1.7127403846153848E-2</v>
       </c>
       <c r="F25">
-        <v>4.4896080987805814E-2</v>
+        <v>1.9817470664928293E-2</v>
       </c>
       <c r="G25">
-        <v>3.0374331550802137E-2</v>
+        <v>1.2482811306340718E-2</v>
       </c>
       <c r="H25">
-        <v>4.7375821254186157E-2</v>
+        <v>2.516041618733543E-2</v>
       </c>
       <c r="I25">
-        <v>0.98131162402216421</v>
+        <v>0.99143629807692302</v>
       </c>
       <c r="J25">
-        <v>0.97755195950609708</v>
+        <v>0.99009126466753583</v>
       </c>
       <c r="K25">
-        <v>0.98481283422459898</v>
+        <v>0.99375859434682956</v>
       </c>
       <c r="L25">
-        <v>0.97631208937290692</v>
+        <v>0.98741979190633222</v>
       </c>
       <c r="M25">
-        <v>0.33949390175637162</v>
+        <v>9.9506468490534572E-2</v>
       </c>
       <c r="N25">
-        <v>0.34914651579374878</v>
+        <v>9.9973649932385861E-2</v>
       </c>
       <c r="O25">
-        <v>0.3299033322748357</v>
+        <v>9.5016576256951882E-2</v>
       </c>
       <c r="P25">
-        <v>0.35232137405707131</v>
+        <v>0.10602520944938751</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>0.76290127141187913</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>0.71187536664665618</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>0.83252163308371629</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>0.63416945101878897</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.81623335060321978</v>
+        <v>0.88927005036324347</v>
       </c>
       <c r="B26">
-        <v>0.80686383697874275</v>
+        <v>0.88906623448808542</v>
       </c>
       <c r="C26">
-        <v>0.81234803525688348</v>
+        <v>0.8911351528263225</v>
       </c>
       <c r="D26">
-        <v>0.81357204816612005</v>
+        <v>0.88376214537887199</v>
       </c>
       <c r="E26">
-        <v>1.7580671447196872E-2</v>
+        <v>1.8563600065189048E-2</v>
       </c>
       <c r="F26">
-        <v>3.0181251118439553E-2</v>
+        <v>2.2225630799907969E-2</v>
       </c>
       <c r="G26">
-        <v>1.9358288770053477E-2</v>
+        <v>1.4331550802139038E-2</v>
       </c>
       <c r="H26">
-        <v>2.3099930976301863E-2</v>
+        <v>2.7813993915688832E-2</v>
       </c>
       <c r="I26">
-        <v>0.99120966427640156</v>
+        <v>0.99071819996740551</v>
       </c>
       <c r="J26">
-        <v>0.98490937444078031</v>
+        <v>0.9888871846000461</v>
       </c>
       <c r="K26">
-        <v>0.99032085561497329</v>
+        <v>0.99283422459893045</v>
       </c>
       <c r="L26">
-        <v>0.9884500345118491</v>
+        <v>0.98609300304215564</v>
       </c>
       <c r="M26">
-        <v>0.16712078223465013</v>
+        <v>0.11740853658120534</v>
       </c>
       <c r="N26">
-        <v>0.18247329016781275</v>
+        <v>0.11948434913380929</v>
       </c>
       <c r="O26">
-        <v>0.17111413594454808</v>
+        <v>0.1132518221978685</v>
       </c>
       <c r="P26">
-        <v>0.17329662805787724</v>
+        <v>0.12595106280681517</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>0.79933620077544232</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>0.75083963867415415</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>0.84872546955730455</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>0.68817511168412926</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.48925185728504417</v>
+        <v>0.89837927267684203</v>
       </c>
       <c r="B27">
-        <v>0.47847684518168193</v>
+        <v>0.89830692304851401</v>
       </c>
       <c r="C27">
-        <v>0.49282074747254279</v>
+        <v>0.89989924276954325</v>
       </c>
       <c r="D27">
-        <v>0.48131538653266048</v>
+        <v>0.89317309462979355</v>
       </c>
       <c r="E27">
-        <v>3.0985169491525424E-2</v>
+        <v>1.8349698500651889E-2</v>
       </c>
       <c r="F27">
-        <v>4.288672444205844E-2</v>
+        <v>2.1888181609019095E-2</v>
       </c>
       <c r="G27">
-        <v>2.6737967914438502E-2</v>
+        <v>1.4392666157372039E-2</v>
       </c>
       <c r="H27">
-        <v>3.9793440192243783E-2</v>
+        <v>2.7292481529769666E-2</v>
       </c>
       <c r="I27">
-        <v>0.98450741525423746</v>
+        <v>0.99082515074967403</v>
       </c>
       <c r="J27">
-        <v>0.97855663777897084</v>
+        <v>0.98905590919549047</v>
       </c>
       <c r="K27">
-        <v>0.98663101604278081</v>
+        <v>0.99280366692131394</v>
       </c>
       <c r="L27">
-        <v>0.98010327990387802</v>
+        <v>0.98635375923511515</v>
       </c>
       <c r="M27">
-        <v>0.3523281859297609</v>
+        <v>0.11022332829406625</v>
       </c>
       <c r="N27">
-        <v>0.36898215068990498</v>
+        <v>0.11196785190239048</v>
       </c>
       <c r="O27">
-        <v>0.3460756424157001</v>
+        <v>0.10665599177646462</v>
       </c>
       <c r="P27">
-        <v>0.36478729800142856</v>
+        <v>0.11809584065300084</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>0.78052631916468729</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>0.72736554076557469</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>0.83247831034307673</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>0.66003091235489131</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
       <c r="W27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.52030405329178386</v>
+        <v>0.92318398554638237</v>
       </c>
       <c r="B28">
-        <v>0.52063019516906339</v>
+        <v>0.92380908234842884</v>
       </c>
       <c r="C28">
-        <v>0.52239057719344428</v>
+        <v>0.92299593914376643</v>
       </c>
       <c r="D28">
-        <v>0.5170704471152372</v>
+        <v>0.91791095265159162</v>
       </c>
       <c r="E28">
-        <v>7.1351450456323337E-3</v>
+        <v>1.5645371577574969E-2</v>
       </c>
       <c r="F28">
-        <v>7.0250786103228779E-3</v>
+        <v>1.8651737096403099E-2</v>
       </c>
       <c r="G28">
-        <v>4.415584415584416E-3</v>
+        <v>1.3414820473644003E-2</v>
       </c>
       <c r="H28">
-        <v>1.065010097911394E-2</v>
+        <v>2.4822966996446559E-2</v>
       </c>
       <c r="I28">
-        <v>0.99643242747718386</v>
+        <v>0.99217731421121258</v>
       </c>
       <c r="J28">
-        <v>0.99648746069483862</v>
+        <v>0.9906741314517985</v>
       </c>
       <c r="K28">
-        <v>0.99779220779220779</v>
+        <v>0.99329258976317802</v>
       </c>
       <c r="L28">
-        <v>0.99467494951044311</v>
+        <v>0.98758851650177659</v>
       </c>
       <c r="M28">
-        <v>0.30734039803698066</v>
+        <v>8.8530896739119222E-2</v>
       </c>
       <c r="N28">
-        <v>0.30700844773030572</v>
+        <v>8.9156841841846246E-2</v>
       </c>
       <c r="O28">
-        <v>0.30154967232889351</v>
+        <v>8.7556589217329173E-2</v>
       </c>
       <c r="P28">
-        <v>0.31440416749038846</v>
+        <v>9.5909906322803398E-2</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>0.74525336726332403</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>0.67779095075037832</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>0.78963479331157438</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>0.57114723961652869</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
       <c r="W28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.78371527058119628</v>
+        <v>0.79160016250391829</v>
       </c>
       <c r="B29">
-        <v>0.77678836526146722</v>
+        <v>0.79022888714835493</v>
       </c>
       <c r="C29">
-        <v>0.78882292631199291</v>
+        <v>0.78914895455508405</v>
       </c>
       <c r="D29">
-        <v>0.78117622786529783</v>
+        <v>0.78330924807480118</v>
       </c>
       <c r="E29">
-        <v>2.7898875488917861E-2</v>
+        <v>1.6602835723598434E-2</v>
       </c>
       <c r="F29">
-        <v>3.7968146841526704E-2</v>
+        <v>2.0548610578520848E-2</v>
       </c>
       <c r="G29">
-        <v>2.0336134453781511E-2</v>
+        <v>1.703590527119939E-2</v>
       </c>
       <c r="H29">
-        <v>3.3243858169082499E-2</v>
+        <v>2.7824219648746068E-2</v>
       </c>
       <c r="I29">
-        <v>0.986050562255541</v>
+        <v>0.99169858213820083</v>
       </c>
       <c r="J29">
-        <v>0.98101592657923664</v>
+        <v>0.98972569471073957</v>
       </c>
       <c r="K29">
-        <v>0.98983193277310921</v>
+        <v>0.99148204736440027</v>
       </c>
       <c r="L29">
-        <v>0.98337807091545881</v>
+        <v>0.98608789017562704</v>
       </c>
       <c r="M29">
-        <v>0.19573642197803476</v>
+        <v>0.18146581179446031</v>
       </c>
       <c r="N29">
-        <v>0.20656204798887673</v>
+        <v>0.18590959661279449</v>
       </c>
       <c r="O29">
-        <v>0.18658454933581484</v>
+        <v>0.18336435936698886</v>
       </c>
       <c r="P29">
-        <v>0.20094101714862792</v>
+        <v>0.19593510940196734</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>0.91355960772496603</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>0.89164682475522272</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>0.91223372154990268</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>0.85327929715886464</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2419,67 +2419,67 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.50438816299215805</v>
+        <v>0.80895500826162758</v>
       </c>
       <c r="B30">
-        <v>0.50052061882044274</v>
+        <v>0.80999592937164833</v>
       </c>
       <c r="C30">
-        <v>0.50574712926492915</v>
+        <v>0.81203301151282092</v>
       </c>
       <c r="D30">
-        <v>0.50048680884846986</v>
+        <v>0.80354503720084869</v>
       </c>
       <c r="E30">
-        <v>1.0954815840938723E-2</v>
+        <v>1.9220583441981746E-2</v>
       </c>
       <c r="F30">
-        <v>1.5108520592069944E-2</v>
+        <v>2.0906511235524197E-2</v>
       </c>
       <c r="G30">
-        <v>9.1673032849503445E-3</v>
+        <v>1.3919022154316271E-2</v>
       </c>
       <c r="H30">
-        <v>1.5144310657770279E-2</v>
+        <v>2.7691285119001968E-2</v>
       </c>
       <c r="I30">
-        <v>0.99452259207953064</v>
+        <v>0.99038970827900907</v>
       </c>
       <c r="J30">
-        <v>0.99244573970396499</v>
+        <v>0.98954674438223789</v>
       </c>
       <c r="K30">
-        <v>0.9954163483575249</v>
+        <v>0.99304048892284191</v>
       </c>
       <c r="L30">
-        <v>0.992427844671115</v>
+        <v>0.98615435744049906</v>
       </c>
       <c r="M30">
-        <v>0.32051762869055145</v>
+        <v>0.17314140859003541</v>
       </c>
       <c r="N30">
-        <v>0.32822346365075317</v>
+        <v>0.17388338999377712</v>
       </c>
       <c r="O30">
-        <v>0.31714026696848341</v>
+        <v>0.16630593078879563</v>
       </c>
       <c r="P30">
-        <v>0.32828772333905598</v>
+        <v>0.18302528925166428</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>0.88837821643482984</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>0.8766829537750126</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>0.92011658682100139</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>0.83665896356697878</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2490,67 +2490,67 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.48993294734074944</v>
+        <v>0.52030405329178386</v>
       </c>
       <c r="B31">
-        <v>0.48441520783270142</v>
+        <v>0.52063019516906339</v>
       </c>
       <c r="C31">
-        <v>0.49489019790706756</v>
+        <v>0.52239057719344428</v>
       </c>
       <c r="D31">
-        <v>0.4862206035883041</v>
+        <v>0.5170704471152372</v>
       </c>
       <c r="E31">
-        <v>1.9368277379400261E-2</v>
+        <v>7.1351450456323337E-3</v>
       </c>
       <c r="F31">
-        <v>2.5242222051793339E-2</v>
+        <v>7.0250786103228779E-3</v>
       </c>
       <c r="G31">
-        <v>1.3903743315508022E-2</v>
+        <v>4.415584415584416E-3</v>
       </c>
       <c r="H31">
-        <v>2.334534856967559E-2</v>
+        <v>1.065010097911394E-2</v>
       </c>
       <c r="I31">
-        <v>0.99031586131029992</v>
+        <v>0.99643242747718386</v>
       </c>
       <c r="J31">
-        <v>0.98737888897410342</v>
+        <v>0.99648746069483862</v>
       </c>
       <c r="K31">
-        <v>0.99304812834224587</v>
+        <v>0.99779220779220779</v>
       </c>
       <c r="L31">
-        <v>0.98832732571516213</v>
+        <v>0.99467494951044311</v>
       </c>
       <c r="M31">
-        <v>0.33857019720511566</v>
+        <v>0.30734039803698066</v>
       </c>
       <c r="N31">
-        <v>0.3481551546426585</v>
+        <v>0.30700844773030572</v>
       </c>
       <c r="O31">
-        <v>0.32904444276069489</v>
+        <v>0.30154967232889351</v>
       </c>
       <c r="P31">
-        <v>0.34512026755676106</v>
+        <v>0.31440416749038846</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>0.98490273333244127</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>0.98512877502442986</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>0.9906689349564991</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>0.97745499242760103</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2561,67 +2561,67 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.78704016582502323</v>
+        <v>0.86366135666817889</v>
       </c>
       <c r="B32">
-        <v>0.77666087168594444</v>
+        <v>0.86321711557146596</v>
       </c>
       <c r="C32">
-        <v>0.78573298344131048</v>
+        <v>0.86893456525050472</v>
       </c>
       <c r="D32">
-        <v>0.77903018740663477</v>
+        <v>0.85796410281858915</v>
       </c>
       <c r="E32">
-        <v>3.2869540417209908E-2</v>
+        <v>2.5561236962190353E-2</v>
       </c>
       <c r="F32">
-        <v>4.687987320091009E-2</v>
+        <v>2.935807960733185E-2</v>
       </c>
       <c r="G32">
-        <v>3.1856378915202446E-2</v>
+        <v>1.7677616501145913E-2</v>
       </c>
       <c r="H32">
-        <v>4.4277424137842879E-2</v>
+        <v>3.497711992228443E-2</v>
       </c>
       <c r="I32">
-        <v>0.98356522979139505</v>
+        <v>0.98721938151890487</v>
       </c>
       <c r="J32">
-        <v>0.97656006339954493</v>
+        <v>0.98532096019633419</v>
       </c>
       <c r="K32">
-        <v>0.98407181054239889</v>
+        <v>0.99116119174942707</v>
       </c>
       <c r="L32">
-        <v>0.97786128793107852</v>
+        <v>0.98251144003885782</v>
       </c>
       <c r="M32">
-        <v>0.19697846465836699</v>
+        <v>0.14042711368397909</v>
       </c>
       <c r="N32">
-        <v>0.21112241289873246</v>
+        <v>0.14252735533669852</v>
       </c>
       <c r="O32">
-        <v>0.19716852952392364</v>
+        <v>0.13184163408260197</v>
       </c>
       <c r="P32">
-        <v>0.20837269013942258</v>
+        <v>0.14862516508051582</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>0.7706088369203925</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>0.72888564193538219</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>0.84452447394188324</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>0.67698174199001449</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -2632,67 +2632,67 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.82057244349356884</v>
+        <v>0.90445502660384935</v>
       </c>
       <c r="B33">
-        <v>0.81129545554843774</v>
+        <v>0.89997723043180278</v>
       </c>
       <c r="C33">
-        <v>0.82008312797165539</v>
+        <v>0.90584319616033093</v>
       </c>
       <c r="D33">
-        <v>0.81256239936666341</v>
+        <v>0.900035528168043</v>
       </c>
       <c r="E33">
-        <v>2.8616973598435461E-2</v>
+        <v>1.6500977835723598E-2</v>
       </c>
       <c r="F33">
-        <v>4.1659636475189818E-2</v>
+        <v>2.4940562926604799E-2</v>
       </c>
       <c r="G33">
-        <v>2.6967150496562262E-2</v>
+        <v>1.2925897631779985E-2</v>
       </c>
       <c r="H33">
-        <v>4.0284275378991229E-2</v>
+        <v>2.4879208528261369E-2</v>
       </c>
       <c r="I33">
-        <v>0.9856915132007823</v>
+        <v>0.99174951108213816</v>
       </c>
       <c r="J33">
-        <v>0.97917018176240511</v>
+        <v>0.98752971853669769</v>
       </c>
       <c r="K33">
-        <v>0.98651642475171886</v>
+        <v>0.99353705118411006</v>
       </c>
       <c r="L33">
-        <v>0.97985786231050442</v>
+        <v>0.98756039573586929</v>
       </c>
       <c r="M33">
-        <v>0.17241284802926615</v>
+        <v>0.10439978568206568</v>
       </c>
       <c r="N33">
-        <v>0.18531133425614824</v>
+        <v>0.11170321822899201</v>
       </c>
       <c r="O33">
-        <v>0.17171031292474659</v>
+        <v>0.10105583915393974</v>
       </c>
       <c r="P33">
-        <v>0.18385588252362936</v>
+        <v>0.11163521464752361</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>0.79195975546030639</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>0.67055262056854914</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>0.84120125792022016</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>0.67136306922643696</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -2703,67 +2703,67 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.92530087580625342</v>
+        <v>0.89818310151866509</v>
       </c>
       <c r="B34">
-        <v>0.92325183346054618</v>
+        <v>0.8933679480945742</v>
       </c>
       <c r="C34">
-        <v>0.92535368399182727</v>
+        <v>0.89807244737467185</v>
       </c>
       <c r="D34">
-        <v>0.92175398625321181</v>
+        <v>0.89566903537785425</v>
       </c>
       <c r="E34">
-        <v>1.4835601368970013E-2</v>
+        <v>1.7830223272490221E-2</v>
       </c>
       <c r="F34">
-        <v>2.0553723445049465E-2</v>
+        <v>2.6428407086433008E-2</v>
       </c>
       <c r="G34">
-        <v>1.229946524064171E-2</v>
+        <v>1.5645530939648586E-2</v>
       </c>
       <c r="H34">
-        <v>2.2123373469335583E-2</v>
+        <v>2.4010021218396092E-2</v>
       </c>
       <c r="I34">
-        <v>0.99258219931551495</v>
+        <v>0.99108488836375497</v>
       </c>
       <c r="J34">
-        <v>0.98972313827747527</v>
+        <v>0.98678579645678355</v>
       </c>
       <c r="K34">
-        <v>0.99385026737967919</v>
+        <v>0.9921772345301757</v>
       </c>
       <c r="L34">
-        <v>0.9889383132653321</v>
+        <v>0.98799498939080188</v>
       </c>
       <c r="M34">
-        <v>8.6338572847083142E-2</v>
+        <v>0.11009422936023683</v>
       </c>
       <c r="N34">
-        <v>9.0199503144522047E-2</v>
+        <v>0.11767198721631827</v>
       </c>
       <c r="O34">
-        <v>8.4939795631709586E-2</v>
+        <v>0.10888161591811818</v>
       </c>
       <c r="P34">
-        <v>9.191634546458903E-2</v>
+        <v>0.11495223882120356</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>0.78850234803914399</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>0.67332856275464037</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>0.81918284094888794</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>0.70320413338163246</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -2774,67 +2774,67 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.86053538222467496</v>
+        <v>0.88635684359732192</v>
       </c>
       <c r="B35">
-        <v>0.85244317123258406</v>
+        <v>0.88235242404721403</v>
       </c>
       <c r="C35">
-        <v>0.85886471749613802</v>
+        <v>0.89043451675273888</v>
       </c>
       <c r="D35">
-        <v>0.85370002185467131</v>
+        <v>0.88706484388171436</v>
       </c>
       <c r="E35">
-        <v>2.3147205019556714E-2</v>
+        <v>2.0763730443285527E-2</v>
       </c>
       <c r="F35">
-        <v>3.5002684254927523E-2</v>
+        <v>2.8345732034665234E-2</v>
       </c>
       <c r="G35">
-        <v>2.2536287242169595E-2</v>
+        <v>1.4132925897631781E-2</v>
       </c>
       <c r="H35">
-        <v>3.3658000357900654E-2</v>
+        <v>2.3381138635375925E-2</v>
       </c>
       <c r="I35">
-        <v>0.98842639749022165</v>
+        <v>0.98961813477835725</v>
       </c>
       <c r="J35">
-        <v>0.98249865787253621</v>
+        <v>0.98582713398266741</v>
       </c>
       <c r="K35">
-        <v>0.98873185637891525</v>
+        <v>0.99293353705118415</v>
       </c>
       <c r="L35">
-        <v>0.98317099982104972</v>
+        <v>0.98830943068231203</v>
       </c>
       <c r="M35">
-        <v>0.14138302640462563</v>
+        <v>0.12085939474403842</v>
       </c>
       <c r="N35">
-        <v>0.15285103781907478</v>
+        <v>0.12726363005682834</v>
       </c>
       <c r="O35">
-        <v>0.14221716672437243</v>
+        <v>0.11362942000295573</v>
       </c>
       <c r="P35">
-        <v>0.15141353180329864</v>
+        <v>0.12158304719366501</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>0.77747716029484437</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>0.68541557105551176</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>0.85221597358579337</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>0.74049990843608615</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -2845,67 +2845,67 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.85157631720467575</v>
+        <v>0.90631713726865226</v>
       </c>
       <c r="B36">
-        <v>0.84522461416919703</v>
+        <v>0.90173470291574154</v>
       </c>
       <c r="C36">
-        <v>0.84791102685118769</v>
+        <v>0.90572743590387061</v>
       </c>
       <c r="D36">
-        <v>0.84424384971299182</v>
+        <v>0.90495531510914229</v>
       </c>
       <c r="E36">
-        <v>1.97502444589309E-2</v>
+        <v>2.0284998370273793E-2</v>
       </c>
       <c r="F36">
-        <v>2.9506352736661811E-2</v>
+        <v>2.8785438556126492E-2</v>
       </c>
       <c r="G36">
-        <v>2.1100076394194041E-2</v>
+        <v>1.8533231474407944E-2</v>
       </c>
       <c r="H36">
-        <v>3.0554490375028758E-2</v>
+        <v>2.5385382314594678E-2</v>
       </c>
       <c r="I36">
-        <v>0.99012487777053459</v>
+        <v>0.98985750081486312</v>
       </c>
       <c r="J36">
-        <v>0.98524682363166904</v>
+        <v>0.98560728072193682</v>
       </c>
       <c r="K36">
-        <v>0.98944996180290301</v>
+        <v>0.990733384262796</v>
       </c>
       <c r="L36">
-        <v>0.98472275481248561</v>
+        <v>0.98730730884270268</v>
       </c>
       <c r="M36">
-        <v>0.14549904258988178</v>
+        <v>0.10473964957112988</v>
       </c>
       <c r="N36">
-        <v>0.15582129661640415</v>
+        <v>0.11112288186051414</v>
       </c>
       <c r="O36">
-        <v>0.14897232047105746</v>
+        <v>0.1044388505891256</v>
       </c>
       <c r="P36">
-        <v>0.15703959010027282</v>
+        <v>0.10759052147125463</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>0.72517032596110342</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>0.59058357193832967</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>0.75640712175536251</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>0.63891836394691126</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -2964,19 +2964,19 @@
         <v>0.19896708344359992</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>0.83149744202826636</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>0.77763915036454978</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>0.87767888051412424</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>0.77173606005749895</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -2987,67 +2987,67 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.86835575610677207</v>
+        <v>0.80948983022019394</v>
       </c>
       <c r="B38">
-        <v>0.86292748558331134</v>
+        <v>0.80548870194033639</v>
       </c>
       <c r="C38">
-        <v>0.86515665583686074</v>
+        <v>0.80770957588674763</v>
       </c>
       <c r="D38">
-        <v>0.86125500906473129</v>
+        <v>0.80537082301640772</v>
       </c>
       <c r="E38">
-        <v>2.0269719687092569E-2</v>
+        <v>1.5813437092568449E-2</v>
       </c>
       <c r="F38">
-        <v>2.9199580744944654E-2</v>
+        <v>2.2639772988726128E-2</v>
       </c>
       <c r="G38">
-        <v>2.1161191749427044E-2</v>
+        <v>1.5508021390374332E-2</v>
       </c>
       <c r="H38">
-        <v>3.098397116343278E-2</v>
+        <v>2.276759465194161E-2</v>
       </c>
       <c r="I38">
-        <v>0.98986514015645366</v>
+        <v>0.99209328145371578</v>
       </c>
       <c r="J38">
-        <v>0.98540020962752772</v>
+        <v>0.98868011350563689</v>
       </c>
       <c r="K38">
-        <v>0.98941940412528662</v>
+        <v>0.99224598930481289</v>
       </c>
       <c r="L38">
-        <v>0.98450801441828362</v>
+        <v>0.98861620267402917</v>
       </c>
       <c r="M38">
-        <v>0.13398767556321028</v>
+        <v>0.1697377931780239</v>
       </c>
       <c r="N38">
-        <v>0.14267850199945659</v>
+        <v>0.17811875057826582</v>
       </c>
       <c r="O38">
-        <v>0.13685628988246118</v>
+        <v>0.17055008976190472</v>
       </c>
       <c r="P38">
-        <v>0.14467569151087234</v>
+        <v>0.17829282174019395</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>0.90961002247335443</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>0.86866668655295276</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>0.91239539481434662</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>0.86792202213681957</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -3058,67 +3058,67 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.94120100560633646</v>
+        <v>0.88694908544238948</v>
       </c>
       <c r="B39">
-        <v>0.9396397545374694</v>
+        <v>0.88513091452789572</v>
       </c>
       <c r="C39">
-        <v>0.94178707041397003</v>
+        <v>0.88681397214208979</v>
       </c>
       <c r="D39">
-        <v>0.93822501401700464</v>
+        <v>0.8829574133999214</v>
       </c>
       <c r="E39">
-        <v>1.3491077249022165E-2</v>
+        <v>1.5039317144719688E-2</v>
       </c>
       <c r="F39">
-        <v>1.8881816090190965E-2</v>
+        <v>2.0206048521103356E-2</v>
       </c>
       <c r="G39">
-        <v>1.0450725744843391E-2</v>
+        <v>1.2757830404889228E-2</v>
       </c>
       <c r="H39">
-        <v>2.0359434516961934E-2</v>
+        <v>2.2481274126338931E-2</v>
       </c>
       <c r="I39">
-        <v>0.9932544613754889</v>
+        <v>0.99248034142764019</v>
       </c>
       <c r="J39">
-        <v>0.99055909195490444</v>
+        <v>0.98989697573944835</v>
       </c>
       <c r="K39">
-        <v>0.9947746371275783</v>
+        <v>0.9936210847975554</v>
       </c>
       <c r="L39">
-        <v>0.98982028274151901</v>
+        <v>0.98875936293683053</v>
       </c>
       <c r="M39">
-        <v>7.1601873229342305E-2</v>
+        <v>0.1168724478690441</v>
       </c>
       <c r="N39">
-        <v>7.4360746844970932E-2</v>
+        <v>0.12149656704250225</v>
       </c>
       <c r="O39">
-        <v>6.9683709494202106E-2</v>
+        <v>0.1152379325095674</v>
       </c>
       <c r="P39">
-        <v>7.5882260140381907E-2</v>
+        <v>0.12435055227295767</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>0.84690902646131816</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>0.78746431379474191</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>0.87317120301616424</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>0.76352109246555899</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -3129,67 +3129,67 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.97886315698111503</v>
+        <v>0.88927005036324347</v>
       </c>
       <c r="B40">
-        <v>0.97890812521757942</v>
+        <v>0.88906623448808542</v>
       </c>
       <c r="C40">
-        <v>0.97892737917724215</v>
+        <v>0.8911351528263225</v>
       </c>
       <c r="D40">
-        <v>0.97893821443121853</v>
+        <v>0.88376214537887199</v>
       </c>
       <c r="E40">
-        <v>6.5851124511082139E-3</v>
+        <v>1.8563600065189048E-2</v>
       </c>
       <c r="F40">
-        <v>1.0430247718383311E-2</v>
+        <v>2.2225630799907969E-2</v>
       </c>
       <c r="G40">
-        <v>3.957219251336898E-3</v>
+        <v>1.4331550802139038E-2</v>
       </c>
       <c r="H40">
-        <v>1.0404683385740215E-2</v>
+        <v>2.7813993915688832E-2</v>
       </c>
       <c r="I40">
-        <v>0.99670744377444587</v>
+        <v>0.99071819996740551</v>
       </c>
       <c r="J40">
-        <v>0.99478487614080835</v>
+        <v>0.9888871846000461</v>
       </c>
       <c r="K40">
-        <v>0.99802139037433146</v>
+        <v>0.99283422459893045</v>
       </c>
       <c r="L40">
-        <v>0.99479765830712996</v>
+        <v>0.98609300304215564</v>
       </c>
       <c r="M40">
-        <v>3.0652827406336337E-2</v>
+        <v>0.11740853658120534</v>
       </c>
       <c r="N40">
-        <v>2.9139111459378822E-2</v>
+        <v>0.11948434913380929</v>
       </c>
       <c r="O40">
-        <v>2.9784409935996528E-2</v>
+        <v>0.1132518221978685</v>
       </c>
       <c r="P40">
-        <v>2.9118538382045547E-2</v>
+        <v>0.12595106280681517</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>0.79933620077544232</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>0.75083963867415415</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>0.84872546955730455</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>0.68817511168412926</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -3200,67 +3200,67 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.77490967739135164</v>
+        <v>0.80895500826162758</v>
       </c>
       <c r="B41">
-        <v>0.76931640576509497</v>
+        <v>0.80999592937164833</v>
       </c>
       <c r="C41">
-        <v>0.78329453772758484</v>
+        <v>0.81203301151282092</v>
       </c>
       <c r="D41">
-        <v>0.77052084619184069</v>
+        <v>0.80354503720084869</v>
       </c>
       <c r="E41">
-        <v>3.4804840286831812E-2</v>
+        <v>1.9220583441981746E-2</v>
       </c>
       <c r="F41">
-        <v>4.3883733415139195E-2</v>
+        <v>2.0906511235524197E-2</v>
       </c>
       <c r="G41">
-        <v>2.4064171122994651E-2</v>
+        <v>1.3919022154316271E-2</v>
       </c>
       <c r="H41">
-        <v>4.2569726717284047E-2</v>
+        <v>2.7691285119001968E-2</v>
       </c>
       <c r="I41">
-        <v>0.98259757985658402</v>
+        <v>0.99038970827900907</v>
       </c>
       <c r="J41">
-        <v>0.97805813329243052</v>
+        <v>0.98954674438223789</v>
       </c>
       <c r="K41">
-        <v>0.98796791443850263</v>
+        <v>0.99304048892284191</v>
       </c>
       <c r="L41">
-        <v>0.9787151366413579</v>
+        <v>0.98615435744049906</v>
       </c>
       <c r="M41">
-        <v>0.20587359611190542</v>
+        <v>0.17314140859003541</v>
       </c>
       <c r="N41">
-        <v>0.21451912420804287</v>
+        <v>0.17388338999377712</v>
       </c>
       <c r="O41">
-        <v>0.1930820479357627</v>
+        <v>0.16630593078879563</v>
       </c>
       <c r="P41">
-        <v>0.21307427558820177</v>
+        <v>0.18302528925166428</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>0.88837821643482984</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>0.8766829537750126</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>0.92011658682100139</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>0.83665896356697878</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -3271,67 +3271,67 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.97390122191374562</v>
+        <v>0.90631713726865226</v>
       </c>
       <c r="B42">
-        <v>0.97383687434043154</v>
+        <v>0.90173470291574154</v>
       </c>
       <c r="C42">
-        <v>0.97550852084149164</v>
+        <v>0.90572743590387061</v>
       </c>
       <c r="D42">
-        <v>0.97389678592932705</v>
+        <v>0.90495531510914229</v>
       </c>
       <c r="E42">
-        <v>8.2657676010430246E-3</v>
+        <v>2.0284998370273793E-2</v>
       </c>
       <c r="F42">
-        <v>1.2209525270342818E-2</v>
+        <v>2.8785438556126492E-2</v>
       </c>
       <c r="G42">
-        <v>4.0794499618029027E-3</v>
+        <v>1.8533231474407944E-2</v>
       </c>
       <c r="H42">
-        <v>1.2153283738528005E-2</v>
+        <v>2.5385382314594678E-2</v>
       </c>
       <c r="I42">
-        <v>0.99586711619947854</v>
+        <v>0.98985750081486312</v>
       </c>
       <c r="J42">
-        <v>0.99389523736482854</v>
+        <v>0.98560728072193682</v>
       </c>
       <c r="K42">
-        <v>0.99796027501909845</v>
+        <v>0.990733384262796</v>
       </c>
       <c r="L42">
-        <v>0.99392335813073596</v>
+        <v>0.98730730884270268</v>
       </c>
       <c r="M42">
-        <v>3.6700086054786488E-2</v>
+        <v>0.10473964957112988</v>
       </c>
       <c r="N42">
-        <v>3.5725740828569399E-2</v>
+        <v>0.11112288186051414</v>
       </c>
       <c r="O42">
-        <v>3.3550857455707669E-2</v>
+        <v>0.1044388505891256</v>
       </c>
       <c r="P42">
-        <v>3.5677909138712882E-2</v>
+        <v>0.10759052147125463</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>0.72517032596110342</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>0.59058357193832967</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>0.75640712175536251</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>0.63891836394691126</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -3342,996 +3342,1493 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.96806499868792817</v>
+        <v>0.50438816299215805</v>
       </c>
       <c r="B43">
-        <v>0.9684384429819205</v>
+        <v>0.50052061882044274</v>
       </c>
       <c r="C43">
-        <v>0.96983434528891777</v>
+        <v>0.50574712926492915</v>
       </c>
       <c r="D43">
-        <v>0.96846839871754997</v>
+        <v>0.50048680884846986</v>
       </c>
       <c r="E43">
-        <v>8.693570730117341E-3</v>
+        <v>1.0954815840938723E-2</v>
       </c>
       <c r="F43">
-        <v>1.2148170871999386E-2</v>
+        <v>1.5108520592069944E-2</v>
       </c>
       <c r="G43">
-        <v>4.3544690603514137E-3</v>
+        <v>9.1673032849503445E-3</v>
       </c>
       <c r="H43">
-        <v>1.212260653935629E-2</v>
+        <v>1.5144310657770279E-2</v>
       </c>
       <c r="I43">
-        <v>0.99565321463494139</v>
+        <v>0.99452259207953064</v>
       </c>
       <c r="J43">
-        <v>0.99392591456400037</v>
+        <v>0.99244573970396499</v>
       </c>
       <c r="K43">
-        <v>0.99782276546982429</v>
+        <v>0.9954163483575249</v>
       </c>
       <c r="L43">
-        <v>0.99393869673032187</v>
+        <v>0.992427844671115</v>
       </c>
       <c r="M43">
-        <v>4.3341270691934677E-2</v>
+        <v>0.32051762869055145</v>
       </c>
       <c r="N43">
-        <v>4.3003737795172581E-2</v>
+        <v>0.32822346365075317</v>
       </c>
       <c r="O43">
-        <v>3.9575982694224146E-2</v>
+        <v>0.31714026696848341</v>
       </c>
       <c r="P43">
-        <v>4.2971907225699144E-2</v>
+        <v>0.32828772333905598</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>0.97740236194774277</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>0.9688226418091449</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>0.98110495143434095</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>0.9687487289464537</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43">
         <v>0</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.95699907562047359</v>
+        <v>0.48993294734074944</v>
       </c>
       <c r="B44">
-        <v>0.95395426656369808</v>
+        <v>0.48441520783270142</v>
       </c>
       <c r="C44">
-        <v>0.9568766527320699</v>
+        <v>0.49489019790706756</v>
       </c>
       <c r="D44">
-        <v>0.95880138876653898</v>
+        <v>0.4862206035883041</v>
       </c>
       <c r="E44">
-        <v>1.089370110821382E-2</v>
+        <v>1.9368277379400261E-2</v>
       </c>
       <c r="F44">
-        <v>1.7823452718766775E-2</v>
+        <v>2.5242222051793339E-2</v>
       </c>
       <c r="G44">
-        <v>8.4797555385790688E-3</v>
+        <v>1.3903743315508022E-2</v>
       </c>
       <c r="H44">
-        <v>1.282818212030575E-2</v>
+        <v>2.334534856967559E-2</v>
       </c>
       <c r="I44">
-        <v>0.99455314944589313</v>
+        <v>0.99031586131029992</v>
       </c>
       <c r="J44">
-        <v>0.99108827364061669</v>
+        <v>0.98737888897410342</v>
       </c>
       <c r="K44">
-        <v>0.99576012223071042</v>
+        <v>0.99304812834224587</v>
       </c>
       <c r="L44">
-        <v>0.99358590893984711</v>
+        <v>0.98832732571516213</v>
       </c>
       <c r="M44">
-        <v>5.5482040978444468E-2</v>
+        <v>0.33857019720511566</v>
       </c>
       <c r="N44">
-        <v>5.912953375321188E-2</v>
+        <v>0.3481551546426585</v>
       </c>
       <c r="O44">
-        <v>5.4669865187630472E-2</v>
+        <v>0.32904444276069489</v>
       </c>
       <c r="P44">
-        <v>5.3987853794651292E-2</v>
+        <v>0.34512026755676106</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.960559343177253</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>0.94858805771197729</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>0.97170581794862521</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>0.95245143673587551</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44">
         <v>0</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.88635684359732192</v>
+        <v>0.78704016582502323</v>
       </c>
       <c r="B45">
-        <v>0.88235242404721403</v>
+        <v>0.77666087168594444</v>
       </c>
       <c r="C45">
-        <v>0.89043451675273888</v>
+        <v>0.78573298344131048</v>
       </c>
       <c r="D45">
-        <v>0.88706484388171436</v>
+        <v>0.77903018740663477</v>
       </c>
       <c r="E45">
-        <v>2.0763730443285527E-2</v>
+        <v>3.2869540417209908E-2</v>
       </c>
       <c r="F45">
-        <v>2.8345732034665234E-2</v>
+        <v>4.687987320091009E-2</v>
       </c>
       <c r="G45">
-        <v>1.4132925897631781E-2</v>
+        <v>3.1856378915202446E-2</v>
       </c>
       <c r="H45">
-        <v>2.3381138635375925E-2</v>
+        <v>4.4277424137842879E-2</v>
       </c>
       <c r="I45">
-        <v>0.98961813477835725</v>
+        <v>0.98356522979139505</v>
       </c>
       <c r="J45">
-        <v>0.98582713398266741</v>
+        <v>0.97656006339954493</v>
       </c>
       <c r="K45">
-        <v>0.99293353705118415</v>
+        <v>0.98407181054239889</v>
       </c>
       <c r="L45">
-        <v>0.98830943068231203</v>
+        <v>0.97786128793107852</v>
       </c>
       <c r="M45">
-        <v>0.12085939474403842</v>
+        <v>0.19697846465836699</v>
       </c>
       <c r="N45">
-        <v>0.12726363005682834</v>
+        <v>0.21112241289873246</v>
       </c>
       <c r="O45">
-        <v>0.11362942000295573</v>
+        <v>0.19716852952392364</v>
       </c>
       <c r="P45">
-        <v>0.12158304719366501</v>
+        <v>0.20837269013942258</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.81857143381091302</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>0.73759842003234022</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>0.82632521252689817</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>0.75215947008982453</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
         <v>0</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.89790262743722793</v>
+        <v>0.92530087580625342</v>
       </c>
       <c r="B46">
-        <v>0.89192972846285024</v>
+        <v>0.92325183346054618</v>
       </c>
       <c r="C46">
-        <v>0.90233746659577796</v>
+        <v>0.92535368399182727</v>
       </c>
       <c r="D46">
-        <v>0.8990696083957338</v>
+        <v>0.92175398625321181</v>
       </c>
       <c r="E46">
-        <v>2.2811073989569754E-2</v>
+        <v>1.4835601368970013E-2</v>
       </c>
       <c r="F46">
-        <v>3.264053991870542E-2</v>
+        <v>2.0553723445049465E-2</v>
       </c>
       <c r="G46">
-        <v>1.5599694423223835E-2</v>
+        <v>1.229946524064171E-2</v>
       </c>
       <c r="H46">
-        <v>2.5068384589820282E-2</v>
+        <v>2.2123373469335583E-2</v>
       </c>
       <c r="I46">
-        <v>0.98859446300521514</v>
+        <v>0.99258219931551495</v>
       </c>
       <c r="J46">
-        <v>0.98367973004064735</v>
+        <v>0.98972313827747527</v>
       </c>
       <c r="K46">
-        <v>0.99220015278838813</v>
+        <v>0.99385026737967919</v>
       </c>
       <c r="L46">
-        <v>0.98746580770508974</v>
+        <v>0.9889383132653321</v>
       </c>
       <c r="M46">
-        <v>0.11267119360912725</v>
+        <v>8.6338572847083142E-2</v>
       </c>
       <c r="N46">
-        <v>0.12032397023528429</v>
+        <v>9.0199503144522047E-2</v>
       </c>
       <c r="O46">
-        <v>0.10553992610284368</v>
+        <v>8.4939795631709586E-2</v>
       </c>
       <c r="P46">
-        <v>0.11250381504036126</v>
+        <v>9.191634546458903E-2</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.75308408698939555</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>0.63696839745557843</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>0.80320266045642097</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>0.60921110948230373</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46">
         <v>0</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.61206537586755405</v>
+        <v>0.86053538222467496</v>
       </c>
       <c r="B47">
-        <v>0.59762003234987005</v>
+        <v>0.85244317123258406</v>
       </c>
       <c r="C47">
-        <v>0.62515877456476021</v>
+        <v>0.85886471749613802</v>
       </c>
       <c r="D47">
-        <v>0.60018986552802245</v>
+        <v>0.85370002185467131</v>
       </c>
       <c r="E47">
-        <v>7.1702860169491525E-2</v>
+        <v>2.3147205019556714E-2</v>
       </c>
       <c r="F47">
-        <v>9.0743155149934807E-2</v>
+        <v>3.5002684254927523E-2</v>
       </c>
       <c r="G47">
-        <v>5.4866310160427804E-2</v>
+        <v>2.2536287242169595E-2</v>
       </c>
       <c r="H47">
-        <v>8.7619193700948436E-2</v>
+        <v>3.3658000357900654E-2</v>
       </c>
       <c r="I47">
-        <v>0.96414856991525422</v>
+        <v>0.98842639749022165</v>
       </c>
       <c r="J47">
-        <v>0.95462842242503265</v>
+        <v>0.98249865787253621</v>
       </c>
       <c r="K47">
-        <v>0.97256684491978596</v>
+        <v>0.98873185637891525</v>
       </c>
       <c r="L47">
-        <v>0.95619040314952575</v>
+        <v>0.98317099982104972</v>
       </c>
       <c r="M47">
-        <v>0.32249686617086021</v>
+        <v>0.14138302640462563</v>
       </c>
       <c r="N47">
-        <v>0.3394386773404568</v>
+        <v>0.15285103781907478</v>
       </c>
       <c r="O47">
-        <v>0.30555542006609315</v>
+        <v>0.14221716672437243</v>
       </c>
       <c r="P47">
-        <v>0.33667069273973116</v>
+        <v>0.15141353180329864</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>0.80191210972778804</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>0.69236342390832972</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>0.81078937391399153</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>0.70417008962492655</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.92501631324998013</v>
+        <v>0.85157631720467575</v>
       </c>
       <c r="B48">
-        <v>0.91820151749557022</v>
+        <v>0.84522461416919703</v>
       </c>
       <c r="C48">
-        <v>0.92239752071951764</v>
+        <v>0.84791102685118769</v>
       </c>
       <c r="D48">
-        <v>0.92368849712256584</v>
+        <v>0.84424384971299182</v>
       </c>
       <c r="E48">
-        <v>1.3934159061277705E-2</v>
+        <v>1.97502444589309E-2</v>
       </c>
       <c r="F48">
-        <v>2.4618452335301785E-2</v>
+        <v>2.9506352736661811E-2</v>
       </c>
       <c r="G48">
-        <v>1.4132925897631781E-2</v>
+        <v>2.1100076394194041E-2</v>
       </c>
       <c r="H48">
-        <v>1.8886928956719586E-2</v>
+        <v>3.0554490375028758E-2</v>
       </c>
       <c r="I48">
-        <v>0.9930329204693612</v>
+        <v>0.99012487777053459</v>
       </c>
       <c r="J48">
-        <v>0.98769077383234904</v>
+        <v>0.98524682363166904</v>
       </c>
       <c r="K48">
-        <v>0.99293353705118415</v>
+        <v>0.98944996180290301</v>
       </c>
       <c r="L48">
-        <v>0.99055653552164025</v>
+        <v>0.98472275481248561</v>
       </c>
       <c r="M48">
-        <v>8.6133839541256585E-2</v>
+        <v>0.14549904258988178</v>
       </c>
       <c r="N48">
-        <v>9.561246912020438E-2</v>
+        <v>0.15582129661640415</v>
       </c>
       <c r="O48">
-        <v>8.845028432601526E-2</v>
+        <v>0.14897232047105746</v>
       </c>
       <c r="P48">
-        <v>8.9338874893114734E-2</v>
+        <v>0.15703959010027282</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>0.84697266962945172</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>0.76608187133896977</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>0.8394627057036248</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>0.75776403841128448</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48">
         <v>0</v>
       </c>
       <c r="W48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.90631713726865226</v>
+        <v>0.86835575610677207</v>
       </c>
       <c r="B49">
-        <v>0.90173470291574154</v>
+        <v>0.86292748558331134</v>
       </c>
       <c r="C49">
-        <v>0.90572743590387061</v>
+        <v>0.86515665583686074</v>
       </c>
       <c r="D49">
-        <v>0.90495531510914229</v>
+        <v>0.86125500906473129</v>
       </c>
       <c r="E49">
-        <v>2.0284998370273793E-2</v>
+        <v>2.0269719687092569E-2</v>
       </c>
       <c r="F49">
-        <v>2.8785438556126492E-2</v>
+        <v>2.9199580744944654E-2</v>
       </c>
       <c r="G49">
-        <v>1.8533231474407944E-2</v>
+        <v>2.1161191749427044E-2</v>
       </c>
       <c r="H49">
-        <v>2.5385382314594678E-2</v>
+        <v>3.098397116343278E-2</v>
       </c>
       <c r="I49">
-        <v>0.98985750081486312</v>
+        <v>0.98986514015645366</v>
       </c>
       <c r="J49">
-        <v>0.98560728072193682</v>
+        <v>0.98540020962752772</v>
       </c>
       <c r="K49">
-        <v>0.990733384262796</v>
+        <v>0.98941940412528662</v>
       </c>
       <c r="L49">
-        <v>0.98730730884270268</v>
+        <v>0.98450801441828362</v>
       </c>
       <c r="M49">
-        <v>0.10473964957112988</v>
+        <v>0.13398767556321028</v>
       </c>
       <c r="N49">
-        <v>0.11112288186051414</v>
+        <v>0.14267850199945659</v>
       </c>
       <c r="O49">
-        <v>0.1044388505891256</v>
+        <v>0.13685628988246118</v>
       </c>
       <c r="P49">
-        <v>0.10759052147125463</v>
+        <v>0.14467569151087234</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>0.8186729011803443</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>0.73143772587793976</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>0.81458686316060502</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>0.71501399283353162</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49">
         <v>0</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.92700509783529406</v>
+        <v>0.94120100560633646</v>
       </c>
       <c r="B50">
-        <v>0.9282883603315254</v>
+        <v>0.9396397545374694</v>
       </c>
       <c r="C50">
-        <v>0.92772236587391399</v>
+        <v>0.94178707041397003</v>
       </c>
       <c r="D50">
-        <v>0.92215951028769105</v>
+        <v>0.93822501401700464</v>
       </c>
       <c r="E50">
-        <v>1.6475513363754888E-2</v>
+        <v>1.3491077249022165E-2</v>
       </c>
       <c r="F50">
-        <v>1.8840913157962012E-2</v>
+        <v>1.8881816090190965E-2</v>
       </c>
       <c r="G50">
-        <v>1.3292589763177999E-2</v>
+        <v>1.0450725744843391E-2</v>
       </c>
       <c r="H50">
-        <v>2.5257560651379195E-2</v>
+        <v>2.0359434516961934E-2</v>
       </c>
       <c r="I50">
-        <v>0.99176224331812257</v>
+        <v>0.9932544613754889</v>
       </c>
       <c r="J50">
-        <v>0.99057954342101906</v>
+        <v>0.99055909195490444</v>
       </c>
       <c r="K50">
-        <v>0.99335370511841103</v>
+        <v>0.9947746371275783</v>
       </c>
       <c r="L50">
-        <v>0.98737121967431041</v>
+        <v>0.98982028274151901</v>
       </c>
       <c r="M50">
-        <v>8.5560136097648412E-2</v>
+        <v>7.1601873229342305E-2</v>
       </c>
       <c r="N50">
-        <v>8.5174887645482783E-2</v>
+        <v>7.4360746844970932E-2</v>
       </c>
       <c r="O50">
-        <v>8.3492896349188925E-2</v>
+        <v>6.9683709494202106E-2</v>
       </c>
       <c r="P50">
-        <v>9.1952092964955351E-2</v>
+        <v>7.5882260140381907E-2</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>0.70342714654909866</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>0.54865931406641399</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>0.78169176065289281</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>0.51328218341103682</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50">
         <v>0</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.73915779891624378</v>
+        <v>0.97886315698111503</v>
       </c>
       <c r="B51">
-        <v>0.73206797972286319</v>
+        <v>0.97890812521757942</v>
       </c>
       <c r="C51">
-        <v>0.76249179162185043</v>
+        <v>0.97892737917724215</v>
       </c>
       <c r="D51">
-        <v>0.7384998958222565</v>
+        <v>0.97893821443121853</v>
       </c>
       <c r="E51">
-        <v>5.7677029009126468E-2</v>
+        <v>6.5851124511082139E-3</v>
       </c>
       <c r="F51">
-        <v>6.8670910345885419E-2</v>
+        <v>1.0430247718383311E-2</v>
       </c>
       <c r="G51">
-        <v>2.9977081741787624E-2</v>
+        <v>3.957219251336898E-3</v>
       </c>
       <c r="H51">
-        <v>6.1282818212030576E-2</v>
+        <v>1.0404683385740215E-2</v>
       </c>
       <c r="I51">
-        <v>0.97116148549543679</v>
+        <v>0.99670744377444587</v>
       </c>
       <c r="J51">
-        <v>0.96566454482705733</v>
+        <v>0.99478487614080835</v>
       </c>
       <c r="K51">
-        <v>0.98501145912910615</v>
+        <v>0.99802139037433146</v>
       </c>
       <c r="L51">
-        <v>0.96935859089398468</v>
+        <v>0.99479765830712996</v>
       </c>
       <c r="M51">
-        <v>0.24020205358417213</v>
+        <v>3.0652827406336337E-2</v>
       </c>
       <c r="N51">
-        <v>0.24877933062850227</v>
+        <v>2.9139111459378822E-2</v>
       </c>
       <c r="O51">
-        <v>0.21027081714108697</v>
+        <v>2.9784409935996528E-2</v>
       </c>
       <c r="P51">
-        <v>0.24203326397609981</v>
+        <v>2.9118538382045547E-2</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.54881329797625078</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>3.1583680461715904E-2</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>0.7690032616550585</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>3.350340782008198E-2</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51">
         <v>0</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.92937807102735448</v>
+        <v>0.97390122191374562</v>
       </c>
       <c r="B52">
-        <v>0.92350670038727434</v>
+        <v>0.97383687434043154</v>
       </c>
       <c r="C52">
-        <v>0.92759673518410768</v>
+        <v>0.97550852084149164</v>
       </c>
       <c r="D52">
-        <v>0.92835937969059512</v>
+        <v>0.97389678592932705</v>
       </c>
       <c r="E52">
-        <v>1.3934159061277705E-2</v>
+        <v>8.2657676010430246E-3</v>
       </c>
       <c r="F52">
-        <v>2.3181736840759772E-2</v>
+        <v>1.2209525270342818E-2</v>
       </c>
       <c r="G52">
-        <v>1.2788388082505729E-2</v>
+        <v>4.0794499618029027E-3</v>
       </c>
       <c r="H52">
-        <v>1.8119998977426693E-2</v>
+        <v>1.2153283738528005E-2</v>
       </c>
       <c r="I52">
-        <v>0.9930329204693612</v>
+        <v>0.99586711619947854</v>
       </c>
       <c r="J52">
-        <v>0.98840913157962018</v>
+        <v>0.99389523736482854</v>
       </c>
       <c r="K52">
-        <v>0.99360580595874715</v>
+        <v>0.99796027501909845</v>
       </c>
       <c r="L52">
-        <v>0.99094000051128672</v>
+        <v>0.99392335813073596</v>
       </c>
       <c r="M52">
-        <v>8.23886578638722E-2</v>
+        <v>3.6700086054786488E-2</v>
       </c>
       <c r="N52">
-        <v>9.0468293169226097E-2</v>
+        <v>3.5725740828569399E-2</v>
       </c>
       <c r="O52">
-        <v>8.3328389959831897E-2</v>
+        <v>3.3550857455707669E-2</v>
       </c>
       <c r="P52">
-        <v>8.4908363655406077E-2</v>
+        <v>3.5677909138712882E-2</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.53825966945058479</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>0.13424034153644154</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>0.80030761961475194</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>0.13792024158980648</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52">
         <v>0</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.86054827651861721</v>
+        <v>0.96806499868792817</v>
       </c>
       <c r="B53">
-        <v>0.85680578818055864</v>
+        <v>0.9684384429819205</v>
       </c>
       <c r="C53">
-        <v>0.86086069188978465</v>
+        <v>0.96983434528891777</v>
       </c>
       <c r="D53">
-        <v>0.85686347212970038</v>
+        <v>0.96846839871754997</v>
       </c>
       <c r="E53">
-        <v>1.9796080508474576E-2</v>
+        <v>8.693570730117341E-3</v>
       </c>
       <c r="F53">
-        <v>2.699082240458113E-2</v>
+        <v>1.2148170871999386E-2</v>
       </c>
       <c r="G53">
-        <v>1.7173414820473645E-2</v>
+        <v>4.3544690603514137E-3</v>
       </c>
       <c r="H53">
-        <v>2.6934580872766317E-2</v>
+        <v>1.212260653935629E-2</v>
       </c>
       <c r="I53">
-        <v>0.99010195974576265</v>
+        <v>0.99565321463494139</v>
       </c>
       <c r="J53">
-        <v>0.98650458879770941</v>
+        <v>0.99392591456400037</v>
       </c>
       <c r="K53">
-        <v>0.99141329258976318</v>
+        <v>0.99782276546982429</v>
       </c>
       <c r="L53">
-        <v>0.98653270956361672</v>
+        <v>0.99393869673032187</v>
       </c>
       <c r="M53">
-        <v>0.13926262908611628</v>
+        <v>4.3341270691934677E-2</v>
       </c>
       <c r="N53">
-        <v>0.14618312735611921</v>
+        <v>4.3003737795172581E-2</v>
       </c>
       <c r="O53">
-        <v>0.13717050427393401</v>
+        <v>3.9575982694224146E-2</v>
       </c>
       <c r="P53">
-        <v>0.14611250484341723</v>
+        <v>4.2971907225699144E-2</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>0.62715754744363683</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>0.37895848349867517</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>0.83141911458480244</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>0.38010656125037329</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53">
         <v>0</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.78704016582502323</v>
+        <v>0.95699907562047359</v>
       </c>
       <c r="B54">
-        <v>0.77666087168594444</v>
+        <v>0.95395426656369808</v>
       </c>
       <c r="C54">
-        <v>0.78573298344131048</v>
+        <v>0.9568766527320699</v>
       </c>
       <c r="D54">
-        <v>0.77903018740663477</v>
+        <v>0.95880138876653898</v>
       </c>
       <c r="E54">
-        <v>3.2869540417209908E-2</v>
+        <v>1.089370110821382E-2</v>
       </c>
       <c r="F54">
-        <v>4.687987320091009E-2</v>
+        <v>1.7823452718766775E-2</v>
       </c>
       <c r="G54">
-        <v>3.1856378915202446E-2</v>
+        <v>8.4797555385790688E-3</v>
       </c>
       <c r="H54">
-        <v>4.4277424137842879E-2</v>
+        <v>1.282818212030575E-2</v>
       </c>
       <c r="I54">
-        <v>0.98356522979139505</v>
+        <v>0.99455314944589313</v>
       </c>
       <c r="J54">
-        <v>0.97656006339954493</v>
+        <v>0.99108827364061669</v>
       </c>
       <c r="K54">
-        <v>0.98407181054239889</v>
+        <v>0.99576012223071042</v>
       </c>
       <c r="L54">
-        <v>0.97786128793107852</v>
+        <v>0.99358590893984711</v>
       </c>
       <c r="M54">
-        <v>0.19697846465836699</v>
+        <v>5.5482040978444468E-2</v>
       </c>
       <c r="N54">
-        <v>0.21112241289873246</v>
+        <v>5.912953375321188E-2</v>
       </c>
       <c r="O54">
-        <v>0.19716852952392364</v>
+        <v>5.4669865187630472E-2</v>
       </c>
       <c r="P54">
-        <v>0.20837269013942258</v>
+        <v>5.3987853794651292E-2</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>0.66195816216082393</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>0.37549123749046709</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>0.75573573674076955</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>0.55044030137881073</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V54">
         <v>0</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.92700509783529406</v>
+        <v>0.89790262743722793</v>
       </c>
       <c r="B55">
-        <v>0.9282883603315254</v>
+        <v>0.89192972846285024</v>
       </c>
       <c r="C55">
-        <v>0.92772236587391399</v>
+        <v>0.90233746659577796</v>
       </c>
       <c r="D55">
-        <v>0.92215951028769105</v>
+        <v>0.8990696083957338</v>
       </c>
       <c r="E55">
-        <v>1.6475513363754888E-2</v>
+        <v>2.2811073989569754E-2</v>
       </c>
       <c r="F55">
-        <v>1.8840913157962012E-2</v>
+        <v>3.264053991870542E-2</v>
       </c>
       <c r="G55">
-        <v>1.3292589763177999E-2</v>
+        <v>1.5599694423223835E-2</v>
       </c>
       <c r="H55">
-        <v>2.5257560651379195E-2</v>
+        <v>2.5068384589820282E-2</v>
       </c>
       <c r="I55">
-        <v>0.99176224331812257</v>
+        <v>0.98859446300521514</v>
       </c>
       <c r="J55">
-        <v>0.99057954342101906</v>
+        <v>0.98367973004064735</v>
       </c>
       <c r="K55">
-        <v>0.99335370511841103</v>
+        <v>0.99220015278838813</v>
       </c>
       <c r="L55">
-        <v>0.98737121967431041</v>
+        <v>0.98746580770508974</v>
       </c>
       <c r="M55">
-        <v>8.5560136097648412E-2</v>
+        <v>0.11267119360912725</v>
       </c>
       <c r="N55">
-        <v>8.5174887645482783E-2</v>
+        <v>0.12032397023528429</v>
       </c>
       <c r="O55">
-        <v>8.3492896349188925E-2</v>
+        <v>0.10553992610284368</v>
       </c>
       <c r="P55">
-        <v>9.1952092964955351E-2</v>
+        <v>0.11250381504036126</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>0.71417073891790195</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>0.5732991477987851</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>0.81046754165127777</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>0.67226770344761955</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V55">
         <v>0</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>0.61206537586755405</v>
+      </c>
+      <c r="B56">
+        <v>0.59762003234987005</v>
+      </c>
+      <c r="C56">
+        <v>0.62515877456476021</v>
+      </c>
+      <c r="D56">
+        <v>0.60018986552802245</v>
+      </c>
+      <c r="E56">
+        <v>7.1702860169491525E-2</v>
+      </c>
+      <c r="F56">
+        <v>9.0743155149934807E-2</v>
+      </c>
+      <c r="G56">
+        <v>5.4866310160427804E-2</v>
+      </c>
+      <c r="H56">
+        <v>8.7619193700948436E-2</v>
+      </c>
+      <c r="I56">
+        <v>0.96414856991525422</v>
+      </c>
+      <c r="J56">
+        <v>0.95462842242503265</v>
+      </c>
+      <c r="K56">
+        <v>0.97256684491978596</v>
+      </c>
+      <c r="L56">
+        <v>0.95619040314952575</v>
+      </c>
+      <c r="M56">
+        <v>0.32249686617086021</v>
+      </c>
+      <c r="N56">
+        <v>0.3394386773404568</v>
+      </c>
+      <c r="O56">
+        <v>0.30555542006609315</v>
+      </c>
+      <c r="P56">
+        <v>0.33667069273973116</v>
+      </c>
+      <c r="Q56">
+        <v>0.77688590558777271</v>
+      </c>
+      <c r="R56">
+        <v>0.71631339664175619</v>
+      </c>
+      <c r="S56">
+        <v>0.83012749336879676</v>
+      </c>
+      <c r="T56">
+        <v>0.7260770811588102</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.92501631324998013</v>
+      </c>
+      <c r="B57">
+        <v>0.91820151749557022</v>
+      </c>
+      <c r="C57">
+        <v>0.92239752071951764</v>
+      </c>
+      <c r="D57">
+        <v>0.92368849712256584</v>
+      </c>
+      <c r="E57">
+        <v>1.3934159061277705E-2</v>
+      </c>
+      <c r="F57">
+        <v>2.4618452335301785E-2</v>
+      </c>
+      <c r="G57">
+        <v>1.4132925897631781E-2</v>
+      </c>
+      <c r="H57">
+        <v>1.8886928956719586E-2</v>
+      </c>
+      <c r="I57">
+        <v>0.9930329204693612</v>
+      </c>
+      <c r="J57">
+        <v>0.98769077383234904</v>
+      </c>
+      <c r="K57">
+        <v>0.99293353705118415</v>
+      </c>
+      <c r="L57">
+        <v>0.99055653552164025</v>
+      </c>
+      <c r="M57">
+        <v>8.6133839541256585E-2</v>
+      </c>
+      <c r="N57">
+        <v>9.561246912020438E-2</v>
+      </c>
+      <c r="O57">
+        <v>8.845028432601526E-2</v>
+      </c>
+      <c r="P57">
+        <v>8.9338874893114734E-2</v>
+      </c>
+      <c r="Q57">
+        <v>0.77248008067966334</v>
+      </c>
+      <c r="R57">
+        <v>0.57397275413873539</v>
+      </c>
+      <c r="S57">
+        <v>0.77802602735551996</v>
+      </c>
+      <c r="T57">
+        <v>0.6731307148955038</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.92700509783529406</v>
+      </c>
+      <c r="B58">
+        <v>0.9282883603315254</v>
+      </c>
+      <c r="C58">
+        <v>0.92772236587391399</v>
+      </c>
+      <c r="D58">
+        <v>0.92215951028769105</v>
+      </c>
+      <c r="E58">
+        <v>1.6475513363754888E-2</v>
+      </c>
+      <c r="F58">
+        <v>1.8840913157962012E-2</v>
+      </c>
+      <c r="G58">
+        <v>1.3292589763177999E-2</v>
+      </c>
+      <c r="H58">
+        <v>2.5257560651379195E-2</v>
+      </c>
+      <c r="I58">
+        <v>0.99176224331812257</v>
+      </c>
+      <c r="J58">
+        <v>0.99057954342101906</v>
+      </c>
+      <c r="K58">
+        <v>0.99335370511841103</v>
+      </c>
+      <c r="L58">
+        <v>0.98737121967431041</v>
+      </c>
+      <c r="M58">
+        <v>8.5560136097648412E-2</v>
+      </c>
+      <c r="N58">
+        <v>8.5174887645482783E-2</v>
+      </c>
+      <c r="O58">
+        <v>8.3492896349188925E-2</v>
+      </c>
+      <c r="P58">
+        <v>9.1952092964955351E-2</v>
+      </c>
+      <c r="Q58">
+        <v>0.70989131564797592</v>
+      </c>
+      <c r="R58">
+        <v>0.64601854272827164</v>
+      </c>
+      <c r="S58">
+        <v>0.77531779206325446</v>
+      </c>
+      <c r="T58">
+        <v>0.52542002746101091</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.73915779891624378</v>
+      </c>
+      <c r="B59">
+        <v>0.73206797972286319</v>
+      </c>
+      <c r="C59">
+        <v>0.76249179162185043</v>
+      </c>
+      <c r="D59">
+        <v>0.7384998958222565</v>
+      </c>
+      <c r="E59">
+        <v>5.7677029009126468E-2</v>
+      </c>
+      <c r="F59">
+        <v>6.8670910345885419E-2</v>
+      </c>
+      <c r="G59">
+        <v>2.9977081741787624E-2</v>
+      </c>
+      <c r="H59">
+        <v>6.1282818212030576E-2</v>
+      </c>
+      <c r="I59">
+        <v>0.97116148549543679</v>
+      </c>
+      <c r="J59">
+        <v>0.96566454482705733</v>
+      </c>
+      <c r="K59">
+        <v>0.98501145912910615</v>
+      </c>
+      <c r="L59">
+        <v>0.96935859089398468</v>
+      </c>
+      <c r="M59">
+        <v>0.24020205358417213</v>
+      </c>
+      <c r="N59">
+        <v>0.24877933062850227</v>
+      </c>
+      <c r="O59">
+        <v>0.21027081714108697</v>
+      </c>
+      <c r="P59">
+        <v>0.24203326397609981</v>
+      </c>
+      <c r="Q59">
+        <v>0.72068127776916258</v>
+      </c>
+      <c r="R59">
+        <v>0.66333960996192554</v>
+      </c>
+      <c r="S59">
+        <v>0.85617657054891749</v>
+      </c>
+      <c r="T59">
+        <v>0.69955407167622341</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.92937807102735448</v>
+      </c>
+      <c r="B60">
+        <v>0.92350670038727434</v>
+      </c>
+      <c r="C60">
+        <v>0.92759673518410768</v>
+      </c>
+      <c r="D60">
+        <v>0.92835937969059512</v>
+      </c>
+      <c r="E60">
+        <v>1.3934159061277705E-2</v>
+      </c>
+      <c r="F60">
+        <v>2.3181736840759772E-2</v>
+      </c>
+      <c r="G60">
+        <v>1.2788388082505729E-2</v>
+      </c>
+      <c r="H60">
+        <v>1.8119998977426693E-2</v>
+      </c>
+      <c r="I60">
+        <v>0.9930329204693612</v>
+      </c>
+      <c r="J60">
+        <v>0.98840913157962018</v>
+      </c>
+      <c r="K60">
+        <v>0.99360580595874715</v>
+      </c>
+      <c r="L60">
+        <v>0.99094000051128672</v>
+      </c>
+      <c r="M60">
+        <v>8.23886578638722E-2</v>
+      </c>
+      <c r="N60">
+        <v>9.0468293169226097E-2</v>
+      </c>
+      <c r="O60">
+        <v>8.3328389959831897E-2</v>
+      </c>
+      <c r="P60">
+        <v>8.4908363655406077E-2</v>
+      </c>
+      <c r="Q60">
+        <v>0.75503364794806338</v>
+      </c>
+      <c r="R60">
+        <v>0.56950443065051692</v>
+      </c>
+      <c r="S60">
+        <v>0.78607015428967653</v>
+      </c>
+      <c r="T60">
+        <v>0.66350324266110106</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.78704016582502323</v>
+      </c>
+      <c r="B61">
+        <v>0.77666087168594444</v>
+      </c>
+      <c r="C61">
+        <v>0.78573298344131048</v>
+      </c>
+      <c r="D61">
+        <v>0.77903018740663477</v>
+      </c>
+      <c r="E61">
+        <v>3.2869540417209908E-2</v>
+      </c>
+      <c r="F61">
+        <v>4.687987320091009E-2</v>
+      </c>
+      <c r="G61">
+        <v>3.1856378915202446E-2</v>
+      </c>
+      <c r="H61">
+        <v>4.4277424137842879E-2</v>
+      </c>
+      <c r="I61">
+        <v>0.98356522979139505</v>
+      </c>
+      <c r="J61">
+        <v>0.97656006339954493</v>
+      </c>
+      <c r="K61">
+        <v>0.98407181054239889</v>
+      </c>
+      <c r="L61">
+        <v>0.97786128793107852</v>
+      </c>
+      <c r="M61">
+        <v>0.19697846465836699</v>
+      </c>
+      <c r="N61">
+        <v>0.21112241289873246</v>
+      </c>
+      <c r="O61">
+        <v>0.19716852952392364</v>
+      </c>
+      <c r="P61">
+        <v>0.20837269013942258</v>
+      </c>
+      <c r="Q61">
+        <v>0.81857143381091302</v>
+      </c>
+      <c r="R61">
+        <v>0.73759842003234022</v>
+      </c>
+      <c r="S61">
+        <v>0.82632521252689817</v>
+      </c>
+      <c r="T61">
+        <v>0.75215947008982453</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.92700509783529406</v>
+      </c>
+      <c r="B62">
+        <v>0.9282883603315254</v>
+      </c>
+      <c r="C62">
+        <v>0.92772236587391399</v>
+      </c>
+      <c r="D62">
+        <v>0.92215951028769105</v>
+      </c>
+      <c r="E62">
+        <v>1.6475513363754888E-2</v>
+      </c>
+      <c r="F62">
+        <v>1.8840913157962012E-2</v>
+      </c>
+      <c r="G62">
+        <v>1.3292589763177999E-2</v>
+      </c>
+      <c r="H62">
+        <v>2.5257560651379195E-2</v>
+      </c>
+      <c r="I62">
+        <v>0.99176224331812257</v>
+      </c>
+      <c r="J62">
+        <v>0.99057954342101906</v>
+      </c>
+      <c r="K62">
+        <v>0.99335370511841103</v>
+      </c>
+      <c r="L62">
+        <v>0.98737121967431041</v>
+      </c>
+      <c r="M62">
+        <v>8.5560136097648412E-2</v>
+      </c>
+      <c r="N62">
+        <v>8.5174887645482783E-2</v>
+      </c>
+      <c r="O62">
+        <v>8.3492896349188925E-2</v>
+      </c>
+      <c r="P62">
+        <v>9.1952092964955351E-2</v>
+      </c>
+      <c r="Q62">
+        <v>0.70989131564797592</v>
+      </c>
+      <c r="R62">
+        <v>0.64601854272827164</v>
+      </c>
+      <c r="S62">
+        <v>0.77531779206325446</v>
+      </c>
+      <c r="T62">
+        <v>0.52542002746101091</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>0.9444500588151904</v>
       </c>
-      <c r="B56">
+      <c r="B63">
         <v>0.93772498029753404</v>
       </c>
-      <c r="C56">
+      <c r="C63">
         <v>0.94038255492765888</v>
       </c>
-      <c r="D56">
+      <c r="D63">
         <v>0.94173994788785598</v>
       </c>
-      <c r="E56">
+      <c r="E63">
         <v>1.0272367992177314E-2</v>
       </c>
-      <c r="F56">
+      <c r="F63">
         <v>2.0911624102052814E-2</v>
       </c>
-      <c r="G56">
+      <c r="G63">
         <v>1.1902215431627197E-2</v>
       </c>
-      <c r="H56">
+      <c r="H63">
         <v>1.6744637881228111E-2</v>
       </c>
-      <c r="I56">
+      <c r="I63">
         <v>0.99486381600391138</v>
       </c>
-      <c r="J56">
+      <c r="J63">
         <v>0.98954418794897347</v>
       </c>
-      <c r="K56">
+      <c r="K63">
         <v>0.99404889228418636</v>
       </c>
-      <c r="L56">
+      <c r="L63">
         <v>0.99162768105938592</v>
       </c>
-      <c r="M56">
+      <c r="M63">
         <v>6.7190088105707313E-2</v>
       </c>
-      <c r="N56">
+      <c r="N63">
         <v>7.6405223676405162E-2</v>
       </c>
-      <c r="O56">
+      <c r="O63">
         <v>7.1681156568134813E-2</v>
       </c>
-      <c r="P56">
+      <c r="P63">
         <v>7.1989283108654267E-2</v>
       </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>1</v>
+      <c r="Q63">
+        <v>0.77365210434078335</v>
+      </c>
+      <c r="R63">
+        <v>0.49973018890081466</v>
+      </c>
+      <c r="S63">
+        <v>0.75129568926275714</v>
+      </c>
+      <c r="T63">
+        <v>0.59937029482482918</v>
+      </c>
+      <c r="U63">
+        <v>1</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TA 2/Code/Hasil Ekstraksi/xlsx/hasil_567.xlsx
+++ b/TA 2/Code/Hasil Ekstraksi/xlsx/hasil_567.xlsx
@@ -426,7 +426,7 @@
         <v>0</v>
       </c>
       <c r="W1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="W58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="W60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="W61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="W62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="W63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
